--- a/Asesores.xlsx
+++ b/Asesores.xlsx
@@ -3,7 +3,7 @@
 <workbook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <workbookPr/>
   <bookViews>
-    <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" xWindow="-105" yWindow="-105" windowWidth="23250" windowHeight="12450" tabRatio="600" firstSheet="0" activeTab="6" autoFilterDateGrouping="1"/>
+    <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" xWindow="-105" yWindow="-105" windowWidth="23250" windowHeight="12450" tabRatio="600" firstSheet="1" activeTab="8" autoFilterDateGrouping="1"/>
   </bookViews>
   <sheets>
     <sheet name="Asesores" sheetId="1" state="visible" r:id="rId1"/>
@@ -14,6 +14,8 @@
     <sheet name="2025-02-21" sheetId="6" state="visible" r:id="rId6"/>
     <sheet name="2025-02-24" sheetId="7" state="visible" r:id="rId7"/>
     <sheet name="2025-02-25" sheetId="8" state="visible" r:id="rId8"/>
+    <sheet name="2025-02-26" sheetId="9" state="visible" r:id="rId9"/>
+    <sheet name="2025-02-27" sheetId="10" state="visible" r:id="rId10"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="0" fullCalcOnLoad="1"/>
@@ -61,9 +63,11 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="left"/>
     </xf>
+    <xf numFmtId="14" fontId="0" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="20" fontId="0" fillId="0" borderId="0" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+      <alignment horizontal="left"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf numFmtId="49" fontId="0" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf numFmtId="14" fontId="0" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -431,9 +435,9 @@
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15"/>
   <cols>
-    <col width="35.140625" bestFit="1" customWidth="1" style="4" min="1" max="1"/>
-    <col width="11.5703125" customWidth="1" style="4" min="2" max="2"/>
-    <col width="49.5703125" bestFit="1" customWidth="1" style="4" min="4" max="4"/>
+    <col width="35.140625" bestFit="1" customWidth="1" style="6" min="1" max="1"/>
+    <col width="11.5703125" customWidth="1" style="6" min="2" max="2"/>
+    <col width="49.5703125" bestFit="1" customWidth="1" style="6" min="4" max="4"/>
   </cols>
   <sheetData>
     <row r="1">
@@ -2043,6 +2047,649 @@
   <tableParts count="1">
     <tablePart xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1"/>
   </tableParts>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet10.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:F33"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="D15" sqref="D15"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="9.140625" defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1">
+      <c r="A1" t="inlineStr">
+        <is>
+          <t>Nombre</t>
+        </is>
+      </c>
+      <c r="B1" t="inlineStr">
+        <is>
+          <t>Matrícula</t>
+        </is>
+      </c>
+      <c r="C1" t="inlineStr">
+        <is>
+          <t>Hora de Entrada</t>
+        </is>
+      </c>
+      <c r="D1" t="inlineStr">
+        <is>
+          <t>Hora de Salida</t>
+        </is>
+      </c>
+      <c r="E1" t="inlineStr">
+        <is>
+          <t>Horas Recuperadas</t>
+        </is>
+      </c>
+      <c r="F1" t="inlineStr">
+        <is>
+          <t>Fecha de Falta</t>
+        </is>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" t="inlineStr">
+        <is>
+          <t>Diego Eduardo Ayala Vega</t>
+        </is>
+      </c>
+      <c r="B2" t="inlineStr">
+        <is>
+          <t>2086298</t>
+        </is>
+      </c>
+      <c r="C2" t="inlineStr">
+        <is>
+          <t>06:48:09</t>
+        </is>
+      </c>
+      <c r="D2" t="inlineStr">
+        <is>
+          <t>12:07:35</t>
+        </is>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" t="inlineStr">
+        <is>
+          <t>Carlos Alejandro Segovia Romero</t>
+        </is>
+      </c>
+      <c r="B3" t="inlineStr">
+        <is>
+          <t>2034232</t>
+        </is>
+      </c>
+      <c r="C3" t="inlineStr">
+        <is>
+          <t>07:19:14</t>
+        </is>
+      </c>
+      <c r="D3" t="inlineStr">
+        <is>
+          <t>12:24:57</t>
+        </is>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" t="inlineStr">
+        <is>
+          <t>Raul Lopez Cavazos</t>
+        </is>
+      </c>
+      <c r="B4" t="inlineStr">
+        <is>
+          <t>1744896</t>
+        </is>
+      </c>
+      <c r="C4" t="inlineStr">
+        <is>
+          <t>07:36:51</t>
+        </is>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" t="inlineStr">
+        <is>
+          <t>Ricardo Ponce de Leon Herrera</t>
+        </is>
+      </c>
+      <c r="B5" t="inlineStr">
+        <is>
+          <t>1941445</t>
+        </is>
+      </c>
+      <c r="C5" t="inlineStr">
+        <is>
+          <t>07:37:09</t>
+        </is>
+      </c>
+      <c r="D5" t="inlineStr">
+        <is>
+          <t>11:39:52</t>
+        </is>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" t="inlineStr">
+        <is>
+          <t>Emmanuel Machado Perez</t>
+        </is>
+      </c>
+      <c r="B6" t="inlineStr">
+        <is>
+          <t>1910412</t>
+        </is>
+      </c>
+      <c r="C6" t="inlineStr">
+        <is>
+          <t>07:51:47</t>
+        </is>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" t="inlineStr">
+        <is>
+          <t>Monica Carolina Puentes Briones</t>
+        </is>
+      </c>
+      <c r="B7" t="inlineStr">
+        <is>
+          <t>2086163</t>
+        </is>
+      </c>
+      <c r="C7" t="inlineStr">
+        <is>
+          <t>07:51:56</t>
+        </is>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" t="inlineStr">
+        <is>
+          <t>Rey David Hernandez Morales</t>
+        </is>
+      </c>
+      <c r="B8" t="inlineStr">
+        <is>
+          <t>2086176</t>
+        </is>
+      </c>
+      <c r="C8" t="inlineStr">
+        <is>
+          <t>08:14:40</t>
+        </is>
+      </c>
+      <c r="D8" t="inlineStr">
+        <is>
+          <t>11:20:15</t>
+        </is>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" t="inlineStr">
+        <is>
+          <t>Marintia Anahi Treviño Rodriguez</t>
+        </is>
+      </c>
+      <c r="B9" t="inlineStr">
+        <is>
+          <t>1813720</t>
+        </is>
+      </c>
+      <c r="C9" t="inlineStr">
+        <is>
+          <t>08:21:38</t>
+        </is>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" t="inlineStr">
+        <is>
+          <t>Citlaly Guadalupe Fuentes Cordova</t>
+        </is>
+      </c>
+      <c r="B10" t="inlineStr">
+        <is>
+          <t>2086283</t>
+        </is>
+      </c>
+      <c r="C10" t="inlineStr">
+        <is>
+          <t>08:38:42</t>
+        </is>
+      </c>
+      <c r="D10" t="inlineStr">
+        <is>
+          <t>11:20:08</t>
+        </is>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" t="inlineStr">
+        <is>
+          <t>Oscar Daniel Muñoz Valenzuela</t>
+        </is>
+      </c>
+      <c r="B11" t="inlineStr">
+        <is>
+          <t>1878198</t>
+        </is>
+      </c>
+      <c r="C11" t="inlineStr">
+        <is>
+          <t>08:48:00</t>
+        </is>
+      </c>
+      <c r="D11" t="inlineStr">
+        <is>
+          <t>12:09:06</t>
+        </is>
+      </c>
+    </row>
+    <row r="12">
+      <c r="A12" t="inlineStr">
+        <is>
+          <t>Aitor Santiago Medellin Silva</t>
+        </is>
+      </c>
+      <c r="B12" t="inlineStr">
+        <is>
+          <t>1964785</t>
+        </is>
+      </c>
+      <c r="C12" t="inlineStr">
+        <is>
+          <t>08:48:17</t>
+        </is>
+      </c>
+    </row>
+    <row r="13">
+      <c r="A13" t="inlineStr">
+        <is>
+          <t>Gilberto Jair Mejia Mercado</t>
+        </is>
+      </c>
+      <c r="B13" t="inlineStr">
+        <is>
+          <t>1919157</t>
+        </is>
+      </c>
+      <c r="C13" t="inlineStr">
+        <is>
+          <t>09:08:23</t>
+        </is>
+      </c>
+      <c r="D13" t="inlineStr">
+        <is>
+          <t>12:43:05</t>
+        </is>
+      </c>
+    </row>
+    <row r="14">
+      <c r="A14" t="inlineStr">
+        <is>
+          <t>Leslie Fernanda Estrada Delgado</t>
+        </is>
+      </c>
+      <c r="B14" t="inlineStr">
+        <is>
+          <t>2086185</t>
+        </is>
+      </c>
+      <c r="C14" t="inlineStr">
+        <is>
+          <t>09:09:56</t>
+        </is>
+      </c>
+    </row>
+    <row r="15">
+      <c r="A15" t="inlineStr">
+        <is>
+          <t>Cesar Alejandro Rodriguez Perez</t>
+        </is>
+      </c>
+      <c r="B15" t="inlineStr">
+        <is>
+          <t>1734223</t>
+        </is>
+      </c>
+      <c r="C15" t="inlineStr">
+        <is>
+          <t>09:16:57</t>
+        </is>
+      </c>
+    </row>
+    <row r="16">
+      <c r="A16" t="inlineStr">
+        <is>
+          <t>Itzel Escudero Delgado</t>
+        </is>
+      </c>
+      <c r="B16" t="inlineStr">
+        <is>
+          <t>1968877</t>
+        </is>
+      </c>
+      <c r="C16" t="inlineStr">
+        <is>
+          <t>09:19:19</t>
+        </is>
+      </c>
+    </row>
+    <row r="17">
+      <c r="A17" t="inlineStr">
+        <is>
+          <t>Alan Emiliano Iturbide Leal</t>
+        </is>
+      </c>
+      <c r="B17" t="inlineStr">
+        <is>
+          <t>2082907</t>
+        </is>
+      </c>
+      <c r="C17" t="inlineStr">
+        <is>
+          <t>09:30:52</t>
+        </is>
+      </c>
+      <c r="D17" t="inlineStr">
+        <is>
+          <t>12:43:23</t>
+        </is>
+      </c>
+    </row>
+    <row r="18">
+      <c r="A18" t="inlineStr">
+        <is>
+          <t>Cesar Alexandro Guerra Gonzalez</t>
+        </is>
+      </c>
+      <c r="B18" t="inlineStr">
+        <is>
+          <t>1917267</t>
+        </is>
+      </c>
+      <c r="C18" t="inlineStr">
+        <is>
+          <t>09:44:28</t>
+        </is>
+      </c>
+    </row>
+    <row r="19">
+      <c r="A19" t="inlineStr">
+        <is>
+          <t>Sofia Pamela Bautista Vazquez</t>
+        </is>
+      </c>
+      <c r="B19" t="inlineStr">
+        <is>
+          <t>1978525</t>
+        </is>
+      </c>
+      <c r="C19" t="inlineStr">
+        <is>
+          <t>10:04:18</t>
+        </is>
+      </c>
+      <c r="D19" t="inlineStr">
+        <is>
+          <t>12:00:58</t>
+        </is>
+      </c>
+    </row>
+    <row r="20">
+      <c r="A20" t="inlineStr">
+        <is>
+          <t>Luis Cesar Carlon Gonzalez</t>
+        </is>
+      </c>
+      <c r="B20" t="inlineStr">
+        <is>
+          <t>1941417</t>
+        </is>
+      </c>
+      <c r="C20" t="inlineStr">
+        <is>
+          <t>10:05:58</t>
+        </is>
+      </c>
+    </row>
+    <row r="21">
+      <c r="A21" t="inlineStr">
+        <is>
+          <t>John Robert Abel Castillo Martinez</t>
+        </is>
+      </c>
+      <c r="B21" t="inlineStr">
+        <is>
+          <t>1999405</t>
+        </is>
+      </c>
+      <c r="C21" t="inlineStr">
+        <is>
+          <t>10:54:53</t>
+        </is>
+      </c>
+    </row>
+    <row r="22">
+      <c r="A22" t="inlineStr">
+        <is>
+          <t>Jose Paz Rangel Rojas</t>
+        </is>
+      </c>
+      <c r="B22" t="inlineStr">
+        <is>
+          <t>1934406</t>
+        </is>
+      </c>
+      <c r="C22" t="inlineStr">
+        <is>
+          <t>11:26:55</t>
+        </is>
+      </c>
+    </row>
+    <row r="23">
+      <c r="A23" t="inlineStr">
+        <is>
+          <t>Cristobal Caballero Moreno</t>
+        </is>
+      </c>
+      <c r="B23" t="inlineStr">
+        <is>
+          <t>1967859</t>
+        </is>
+      </c>
+      <c r="C23" t="inlineStr">
+        <is>
+          <t>11:34:07</t>
+        </is>
+      </c>
+    </row>
+    <row r="24">
+      <c r="A24" t="inlineStr">
+        <is>
+          <t>Mauricio Alejandro Rodriguez Chavez</t>
+        </is>
+      </c>
+      <c r="B24" t="inlineStr">
+        <is>
+          <t>1948219</t>
+        </is>
+      </c>
+      <c r="C24" t="inlineStr">
+        <is>
+          <t>11:49:20</t>
+        </is>
+      </c>
+    </row>
+    <row r="25">
+      <c r="A25" t="inlineStr">
+        <is>
+          <t>Diego Jasiel Amaro Renteria</t>
+        </is>
+      </c>
+      <c r="B25" t="inlineStr">
+        <is>
+          <t>1994123</t>
+        </is>
+      </c>
+      <c r="C25" t="inlineStr">
+        <is>
+          <t>11:51:01</t>
+        </is>
+      </c>
+    </row>
+    <row r="26">
+      <c r="A26" t="inlineStr">
+        <is>
+          <t>Francisco Javier Cañedo Lizarraga</t>
+        </is>
+      </c>
+      <c r="B26" t="inlineStr">
+        <is>
+          <t>2076289</t>
+        </is>
+      </c>
+      <c r="C26" t="inlineStr">
+        <is>
+          <t>11:56:09</t>
+        </is>
+      </c>
+    </row>
+    <row r="27">
+      <c r="A27" t="inlineStr">
+        <is>
+          <t>Kenia Sarahy Zamora Marroquin</t>
+        </is>
+      </c>
+      <c r="B27" t="inlineStr">
+        <is>
+          <t>1815310</t>
+        </is>
+      </c>
+      <c r="C27" t="inlineStr">
+        <is>
+          <t>12:08:13</t>
+        </is>
+      </c>
+    </row>
+    <row r="28">
+      <c r="A28" t="inlineStr">
+        <is>
+          <t>Santiago Sebastian Alvarado Lozano</t>
+        </is>
+      </c>
+      <c r="B28" t="inlineStr">
+        <is>
+          <t>2076388</t>
+        </is>
+      </c>
+      <c r="C28" t="inlineStr">
+        <is>
+          <t>12:16:59</t>
+        </is>
+      </c>
+    </row>
+    <row r="29">
+      <c r="A29" t="inlineStr">
+        <is>
+          <t>Luis Gerardo Coronado Rodríguez</t>
+        </is>
+      </c>
+      <c r="B29" t="inlineStr">
+        <is>
+          <t>1909051</t>
+        </is>
+      </c>
+      <c r="C29" t="inlineStr">
+        <is>
+          <t>12:25:09</t>
+        </is>
+      </c>
+    </row>
+    <row r="30">
+      <c r="A30" t="inlineStr">
+        <is>
+          <t>Hilda Judith Orozco Vergara</t>
+        </is>
+      </c>
+      <c r="B30" t="inlineStr">
+        <is>
+          <t>1871466</t>
+        </is>
+      </c>
+      <c r="C30" t="inlineStr">
+        <is>
+          <t>12:34:12</t>
+        </is>
+      </c>
+    </row>
+    <row r="31">
+      <c r="A31" t="inlineStr">
+        <is>
+          <t>Israel Diaz Rosario</t>
+        </is>
+      </c>
+      <c r="B31" t="inlineStr">
+        <is>
+          <t>2086303</t>
+        </is>
+      </c>
+      <c r="C31" t="inlineStr">
+        <is>
+          <t>12:56:59</t>
+        </is>
+      </c>
+    </row>
+    <row r="32">
+      <c r="A32" t="inlineStr">
+        <is>
+          <t>Luis Enrique Cabrera Padilla</t>
+        </is>
+      </c>
+      <c r="B32" t="inlineStr">
+        <is>
+          <t>1975069</t>
+        </is>
+      </c>
+      <c r="C32" t="inlineStr">
+        <is>
+          <t>12:59:46</t>
+        </is>
+      </c>
+    </row>
+    <row r="33">
+      <c r="A33" t="inlineStr">
+        <is>
+          <t>Sebastian Gomez Gutierrez</t>
+        </is>
+      </c>
+      <c r="B33" t="inlineStr">
+        <is>
+          <t>2025135</t>
+        </is>
+      </c>
+      <c r="C33" t="inlineStr">
+        <is>
+          <t>13:04:23</t>
+        </is>
+      </c>
+      <c r="D33" t="inlineStr"/>
+      <c r="E33" t="inlineStr"/>
+      <c r="F33" t="inlineStr"/>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>
 </file>
 
@@ -2864,13 +3511,13 @@
   </sheetPr>
   <dimension ref="A1:F64"/>
   <sheetViews>
-    <sheetView topLeftCell="A31" workbookViewId="0">
+    <sheetView topLeftCell="A22" workbookViewId="0">
       <selection activeCell="D45" sqref="D45"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="9.140625" defaultRowHeight="15"/>
   <cols>
-    <col width="39" customWidth="1" style="4" min="1" max="1"/>
+    <col width="39" customWidth="1" style="6" min="1" max="1"/>
   </cols>
   <sheetData>
     <row r="1">
@@ -4315,8 +4962,8 @@
   </sheetPr>
   <dimension ref="A1:F65"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="F6" sqref="F6"/>
+    <sheetView topLeftCell="A13" workbookViewId="0">
+      <selection activeCell="H46" sqref="H46"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="9.140625" defaultRowHeight="15"/>
@@ -5222,12 +5869,12 @@
       </c>
       <c r="C40" t="inlineStr">
         <is>
-          <t>14:03:56</t>
+          <t>14:43:56</t>
         </is>
       </c>
       <c r="D40" t="inlineStr">
         <is>
-          <t>17:58:38</t>
+          <t>18:58:38</t>
         </is>
       </c>
     </row>
@@ -5787,20 +6434,20 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F59"/>
+  <dimension ref="A1:F58"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="B56" sqref="B56"/>
+    <sheetView topLeftCell="A7" workbookViewId="0">
+      <selection activeCell="I54" sqref="I54"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="9.140625" defaultRowHeight="15"/>
   <cols>
-    <col width="40.5703125" customWidth="1" style="4" min="1" max="1"/>
-    <col width="13.85546875" customWidth="1" style="4" min="2" max="2"/>
-    <col width="17.7109375" customWidth="1" style="4" min="3" max="3"/>
-    <col width="15.7109375" customWidth="1" style="4" min="4" max="4"/>
-    <col width="18.140625" customWidth="1" style="4" min="5" max="5"/>
-    <col width="15.140625" customWidth="1" style="4" min="6" max="6"/>
+    <col width="40.5703125" customWidth="1" style="6" min="1" max="1"/>
+    <col width="13.85546875" customWidth="1" style="6" min="2" max="2"/>
+    <col width="17.7109375" customWidth="1" style="6" min="3" max="3"/>
+    <col width="15.7109375" customWidth="1" style="6" min="4" max="4"/>
+    <col width="18.140625" customWidth="1" style="6" min="5" max="5"/>
+    <col width="15.140625" customWidth="1" style="6" min="6" max="6"/>
   </cols>
   <sheetData>
     <row r="1">
@@ -5917,10 +6564,8 @@
           <t>07:32:37</t>
         </is>
       </c>
-      <c r="D5" t="inlineStr">
-        <is>
-          <t>14:25:23</t>
-        </is>
+      <c r="D5" s="1" t="n">
+        <v>0.6842939814814815</v>
       </c>
       <c r="E5" t="inlineStr">
         <is>
@@ -7044,69 +7689,66 @@
       </c>
     </row>
     <row r="56">
-      <c r="C56" s="2" t="n"/>
+      <c r="A56" t="inlineStr">
+        <is>
+          <t>Aldo Maximino Ibarra Melendez</t>
+        </is>
+      </c>
+      <c r="B56" t="inlineStr">
+        <is>
+          <t>1736859</t>
+        </is>
+      </c>
+      <c r="C56" t="inlineStr">
+        <is>
+          <t>17:07:50</t>
+        </is>
+      </c>
+      <c r="D56" t="inlineStr">
+        <is>
+          <t>19:59:11</t>
+        </is>
+      </c>
     </row>
     <row r="57">
       <c r="A57" t="inlineStr">
         <is>
-          <t>Aldo Maximino Ibarra Melendez</t>
+          <t>Aidan Eduardo Rodriguez Bautista</t>
         </is>
       </c>
       <c r="B57" t="inlineStr">
         <is>
-          <t>1736859</t>
+          <t>2076315</t>
         </is>
       </c>
       <c r="C57" t="inlineStr">
         <is>
-          <t>17:07:50</t>
+          <t>17:19:09</t>
         </is>
       </c>
       <c r="D57" t="inlineStr">
         <is>
-          <t>19:59:11</t>
+          <t>19:56:22</t>
         </is>
       </c>
     </row>
     <row r="58">
       <c r="A58" t="inlineStr">
         <is>
-          <t>Aidan Eduardo Rodriguez Bautista</t>
+          <t>Angel Martin Villa Palomares</t>
         </is>
       </c>
       <c r="B58" t="inlineStr">
         <is>
-          <t>2076315</t>
+          <t>1916397</t>
         </is>
       </c>
       <c r="C58" t="inlineStr">
         <is>
-          <t>17:19:09</t>
+          <t>17:36:20</t>
         </is>
       </c>
       <c r="D58" t="inlineStr">
-        <is>
-          <t>19:56:22</t>
-        </is>
-      </c>
-    </row>
-    <row r="59">
-      <c r="A59" t="inlineStr">
-        <is>
-          <t>Angel Martin Villa Palomares</t>
-        </is>
-      </c>
-      <c r="B59" t="inlineStr">
-        <is>
-          <t>1916397</t>
-        </is>
-      </c>
-      <c r="C59" t="inlineStr">
-        <is>
-          <t>17:36:20</t>
-        </is>
-      </c>
-      <c r="D59" t="inlineStr">
         <is>
           <t>19:02:37</t>
         </is>
@@ -7123,10 +7765,10 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F51"/>
+  <dimension ref="A1:F50"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="F46" sqref="F46"/>
+    <sheetView topLeftCell="A10" workbookViewId="0">
+      <selection activeCell="B26" sqref="B26"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="9.140625" defaultRowHeight="15"/>
@@ -7712,562 +8354,560 @@
           <t>18:17:31</t>
         </is>
       </c>
+      <c r="E25" t="inlineStr">
+        <is>
+          <t>4</t>
+        </is>
+      </c>
+      <c r="F25" t="inlineStr">
+        <is>
+          <t>20-02-2025</t>
+        </is>
+      </c>
     </row>
     <row r="26">
-      <c r="E26" t="inlineStr">
-        <is>
-          <t>4</t>
-        </is>
-      </c>
-      <c r="F26" t="inlineStr">
-        <is>
-          <t>20-02-2025</t>
+      <c r="A26" t="inlineStr">
+        <is>
+          <t>Sofia Pamela Bautista Vazquez</t>
+        </is>
+      </c>
+      <c r="B26" t="n">
+        <v>1978525</v>
+      </c>
+      <c r="C26" t="inlineStr">
+        <is>
+          <t>14:12:03</t>
+        </is>
+      </c>
+      <c r="D26" s="2" t="inlineStr">
+        <is>
+          <t>17:19:33</t>
         </is>
       </c>
     </row>
     <row r="27">
       <c r="A27" t="inlineStr">
         <is>
-          <t>Sofia Pamela Bautista Vazquez</t>
-        </is>
-      </c>
-      <c r="B27" t="n">
-        <v>1978525</v>
+          <t>Zulema Yamileht Campos Saucedo</t>
+        </is>
+      </c>
+      <c r="B27" t="inlineStr">
+        <is>
+          <t>1873260</t>
+        </is>
       </c>
       <c r="C27" t="inlineStr">
         <is>
-          <t>14:12:03</t>
-        </is>
-      </c>
-      <c r="D27" s="2" t="inlineStr">
-        <is>
-          <t>17:19:33</t>
+          <t>14:25:54</t>
         </is>
       </c>
     </row>
     <row r="28">
       <c r="A28" t="inlineStr">
         <is>
-          <t>Zulema Yamileht Campos Saucedo</t>
+          <t>Jelmy Gerardo Lopez Garcia</t>
         </is>
       </c>
       <c r="B28" t="inlineStr">
         <is>
-          <t>1873260</t>
+          <t>1989937</t>
         </is>
       </c>
       <c r="C28" t="inlineStr">
         <is>
-          <t>14:25:54</t>
+          <t>14:33:55</t>
         </is>
       </c>
     </row>
     <row r="29">
       <c r="A29" t="inlineStr">
         <is>
-          <t>Jelmy Gerardo Lopez Garcia</t>
+          <t>Andres Emilio Acosta Hernandez</t>
         </is>
       </c>
       <c r="B29" t="inlineStr">
         <is>
-          <t>1989937</t>
+          <t>1896556</t>
         </is>
       </c>
       <c r="C29" t="inlineStr">
         <is>
-          <t>14:33:55</t>
+          <t>14:36:39</t>
+        </is>
+      </c>
+      <c r="D29" t="inlineStr">
+        <is>
+          <t>19:36:34</t>
         </is>
       </c>
     </row>
     <row r="30">
       <c r="A30" t="inlineStr">
         <is>
-          <t>Andres Emilio Acosta Hernandez</t>
+          <t>Sebastian Gomez Gutierrez</t>
         </is>
       </c>
       <c r="B30" t="inlineStr">
         <is>
-          <t>1896556</t>
+          <t>2025135</t>
         </is>
       </c>
       <c r="C30" t="inlineStr">
         <is>
-          <t>14:36:39</t>
+          <t>14:42:38</t>
         </is>
       </c>
       <c r="D30" t="inlineStr">
         <is>
-          <t>19:36:34</t>
+          <t>19:13:32</t>
         </is>
       </c>
     </row>
     <row r="31">
       <c r="A31" t="inlineStr">
         <is>
-          <t>Sebastian Gomez Gutierrez</t>
+          <t>Leonardo Sanchez Diaz</t>
         </is>
       </c>
       <c r="B31" t="inlineStr">
         <is>
-          <t>2025135</t>
+          <t>1900585</t>
         </is>
       </c>
       <c r="C31" t="inlineStr">
         <is>
-          <t>14:42:38</t>
+          <t>15:09:05</t>
         </is>
       </c>
       <c r="D31" t="inlineStr">
         <is>
-          <t>19:13:32</t>
+          <t>19:59:05</t>
+        </is>
+      </c>
+      <c r="E31" t="inlineStr">
+        <is>
+          <t>1</t>
+        </is>
+      </c>
+      <c r="F31" t="inlineStr">
+        <is>
+          <t>19-02-2025</t>
         </is>
       </c>
     </row>
     <row r="32">
       <c r="A32" t="inlineStr">
         <is>
-          <t>Leonardo Sanchez Diaz</t>
+          <t>Oscar Arath Vasquez Morales</t>
         </is>
       </c>
       <c r="B32" t="inlineStr">
         <is>
-          <t>1900585</t>
+          <t>2086292</t>
         </is>
       </c>
       <c r="C32" t="inlineStr">
         <is>
-          <t>15:09:05</t>
+          <t>15:12:56</t>
         </is>
       </c>
       <c r="D32" t="inlineStr">
         <is>
-          <t>19:59:05</t>
-        </is>
-      </c>
-      <c r="E32" t="inlineStr">
-        <is>
-          <t>1</t>
-        </is>
-      </c>
-      <c r="F32" t="inlineStr">
-        <is>
-          <t>19-02-2025</t>
+          <t>19:07:58</t>
         </is>
       </c>
     </row>
     <row r="33">
       <c r="A33" t="inlineStr">
         <is>
-          <t>Oscar Arath Vasquez Morales</t>
+          <t>Ruth Garza Garcia</t>
         </is>
       </c>
       <c r="B33" t="inlineStr">
         <is>
-          <t>2086292</t>
+          <t>2022318</t>
         </is>
       </c>
       <c r="C33" t="inlineStr">
         <is>
-          <t>15:12:56</t>
+          <t>15:17:43</t>
         </is>
       </c>
       <c r="D33" t="inlineStr">
         <is>
-          <t>19:07:58</t>
+          <t>19:23:02</t>
         </is>
       </c>
     </row>
     <row r="34">
       <c r="A34" t="inlineStr">
         <is>
-          <t>Ruth Garza Garcia</t>
+          <t>Karen Victoria Vargas Cruz</t>
         </is>
       </c>
       <c r="B34" t="inlineStr">
         <is>
-          <t>2022318</t>
+          <t>1960023</t>
         </is>
       </c>
       <c r="C34" t="inlineStr">
         <is>
-          <t>15:17:43</t>
+          <t>15:18:29</t>
         </is>
       </c>
       <c r="D34" t="inlineStr">
         <is>
-          <t>19:23:02</t>
+          <t>19:55:23</t>
         </is>
       </c>
     </row>
     <row r="35">
       <c r="A35" t="inlineStr">
         <is>
-          <t>Karen Victoria Vargas Cruz</t>
+          <t>Cristobal Caballero Moreno</t>
         </is>
       </c>
       <c r="B35" t="inlineStr">
         <is>
-          <t>1960023</t>
+          <t>1967859</t>
         </is>
       </c>
       <c r="C35" t="inlineStr">
         <is>
-          <t>15:18:29</t>
+          <t>15:18:52</t>
         </is>
       </c>
       <c r="D35" t="inlineStr">
         <is>
-          <t>19:55:23</t>
+          <t>19:32:15</t>
         </is>
       </c>
     </row>
     <row r="36">
       <c r="A36" t="inlineStr">
         <is>
-          <t>Cristobal Caballero Moreno</t>
+          <t>Luis Gerardo Coronado Rodríguez</t>
         </is>
       </c>
       <c r="B36" t="inlineStr">
         <is>
-          <t>1967859</t>
+          <t>1909051</t>
         </is>
       </c>
       <c r="C36" t="inlineStr">
         <is>
-          <t>15:18:52</t>
+          <t>15:19:00</t>
         </is>
       </c>
       <c r="D36" t="inlineStr">
         <is>
-          <t>19:32:15</t>
+          <t>19:33:08</t>
         </is>
       </c>
     </row>
     <row r="37">
       <c r="A37" t="inlineStr">
         <is>
-          <t>Luis Gerardo Coronado Rodríguez</t>
+          <t>Francisco Javier Cañedo Lizarraga</t>
         </is>
       </c>
       <c r="B37" t="inlineStr">
         <is>
-          <t>1909051</t>
+          <t>2076289</t>
         </is>
       </c>
       <c r="C37" t="inlineStr">
         <is>
-          <t>15:19:00</t>
+          <t>15:21:37</t>
         </is>
       </c>
       <c r="D37" t="inlineStr">
         <is>
-          <t>19:33:08</t>
+          <t>19:33:16</t>
         </is>
       </c>
     </row>
     <row r="38">
       <c r="A38" t="inlineStr">
         <is>
-          <t>Francisco Javier Cañedo Lizarraga</t>
+          <t>Barbara Fitch Espinosa</t>
         </is>
       </c>
       <c r="B38" t="inlineStr">
         <is>
-          <t>2076289</t>
+          <t>1957128</t>
         </is>
       </c>
       <c r="C38" t="inlineStr">
         <is>
-          <t>15:21:37</t>
+          <t>15:26:47</t>
         </is>
       </c>
       <c r="D38" t="inlineStr">
         <is>
-          <t>19:33:16</t>
+          <t>19:55:31</t>
         </is>
       </c>
     </row>
     <row r="39">
       <c r="A39" t="inlineStr">
         <is>
-          <t>Barbara Fitch Espinosa</t>
+          <t>Nelly Rangel Jimenez</t>
         </is>
       </c>
       <c r="B39" t="inlineStr">
         <is>
-          <t>1957128</t>
+          <t>2076253</t>
         </is>
       </c>
       <c r="C39" t="inlineStr">
         <is>
-          <t>15:26:47</t>
+          <t>15:35:23</t>
         </is>
       </c>
       <c r="D39" t="inlineStr">
         <is>
-          <t>19:55:31</t>
+          <t>19:55:41</t>
         </is>
       </c>
     </row>
     <row r="40">
       <c r="A40" t="inlineStr">
         <is>
-          <t>Nelly Rangel Jimenez</t>
+          <t>Edgar Eduardo Hernandez Mariscal</t>
         </is>
       </c>
       <c r="B40" t="inlineStr">
         <is>
-          <t>2076253</t>
+          <t>1896993</t>
         </is>
       </c>
       <c r="C40" t="inlineStr">
         <is>
-          <t>15:35:23</t>
+          <t>15:48:08</t>
         </is>
       </c>
       <c r="D40" t="inlineStr">
         <is>
-          <t>19:55:41</t>
+          <t>19:53:38</t>
         </is>
       </c>
     </row>
     <row r="41">
       <c r="A41" t="inlineStr">
         <is>
-          <t>Edgar Eduardo Hernandez Mariscal</t>
+          <t>Cristian Salazar Bautista</t>
         </is>
       </c>
       <c r="B41" t="inlineStr">
         <is>
-          <t>1896993</t>
+          <t>1964253</t>
         </is>
       </c>
       <c r="C41" t="inlineStr">
         <is>
-          <t>15:48:08</t>
+          <t>15:49:31</t>
         </is>
       </c>
       <c r="D41" t="inlineStr">
         <is>
-          <t>19:53:38</t>
+          <t>19:58:25</t>
         </is>
       </c>
     </row>
     <row r="42">
       <c r="A42" t="inlineStr">
         <is>
-          <t>Cristian Salazar Bautista</t>
+          <t>Gabriel Omar Briseño Pinales</t>
         </is>
       </c>
       <c r="B42" t="inlineStr">
         <is>
-          <t>1964253</t>
+          <t>1996314</t>
         </is>
       </c>
       <c r="C42" t="inlineStr">
         <is>
-          <t>15:49:31</t>
+          <t>15:51:29</t>
         </is>
       </c>
       <c r="D42" t="inlineStr">
         <is>
-          <t>19:58:25</t>
+          <t>19:57:09</t>
         </is>
       </c>
     </row>
     <row r="43">
       <c r="A43" t="inlineStr">
         <is>
-          <t>Gabriel Omar Briseño Pinales</t>
+          <t>Cesar Alejandro Rodriguez Perez</t>
         </is>
       </c>
       <c r="B43" t="inlineStr">
         <is>
-          <t>1996314</t>
+          <t>1734223</t>
         </is>
       </c>
       <c r="C43" t="inlineStr">
         <is>
-          <t>15:51:29</t>
+          <t>14:05:03</t>
         </is>
       </c>
       <c r="D43" t="inlineStr">
         <is>
-          <t>19:57:09</t>
+          <t>17:59:51</t>
         </is>
       </c>
     </row>
     <row r="44">
       <c r="A44" t="inlineStr">
         <is>
-          <t>Cesar Alejandro Rodriguez Perez</t>
+          <t>Vanessa Alejandra Balderas Lopez</t>
         </is>
       </c>
       <c r="B44" t="inlineStr">
         <is>
-          <t>1734223</t>
+          <t>1873814</t>
         </is>
       </c>
       <c r="C44" t="inlineStr">
         <is>
-          <t>14:05:03</t>
+          <t>15:54:40</t>
         </is>
       </c>
       <c r="D44" t="inlineStr">
         <is>
-          <t>17:59:51</t>
+          <t>18:57:11</t>
         </is>
       </c>
     </row>
     <row r="45">
       <c r="A45" t="inlineStr">
         <is>
-          <t>Vanessa Alejandra Balderas Lopez</t>
+          <t>Juan Carlos Tapia Baeza</t>
         </is>
       </c>
       <c r="B45" t="inlineStr">
         <is>
-          <t>1873814</t>
+          <t>2086212</t>
         </is>
       </c>
       <c r="C45" t="inlineStr">
         <is>
-          <t>15:54:40</t>
+          <t>16:01:21</t>
         </is>
       </c>
       <c r="D45" t="inlineStr">
         <is>
-          <t>18:57:11</t>
+          <t>20:00:31</t>
         </is>
       </c>
     </row>
     <row r="46">
       <c r="A46" t="inlineStr">
         <is>
-          <t>Juan Carlos Tapia Baeza</t>
+          <t>Ana Sofia Sandoval de la Torre</t>
         </is>
       </c>
       <c r="B46" t="inlineStr">
         <is>
-          <t>2086212</t>
+          <t>2076222</t>
         </is>
       </c>
       <c r="C46" t="inlineStr">
         <is>
-          <t>16:01:21</t>
+          <t>16:20:39</t>
         </is>
       </c>
       <c r="D46" t="inlineStr">
         <is>
-          <t>20:00:31</t>
+          <t>19:22:52</t>
         </is>
       </c>
     </row>
     <row r="47">
       <c r="A47" t="inlineStr">
         <is>
-          <t>Ana Sofia Sandoval de la Torre</t>
+          <t>Pedro Antonio González Soto</t>
         </is>
       </c>
       <c r="B47" t="inlineStr">
         <is>
-          <t>2076222</t>
+          <t>2006251</t>
         </is>
       </c>
       <c r="C47" t="inlineStr">
         <is>
-          <t>16:20:39</t>
+          <t>16:25:46</t>
         </is>
       </c>
       <c r="D47" t="inlineStr">
         <is>
-          <t>19:22:52</t>
+          <t>20:00:40</t>
         </is>
       </c>
     </row>
     <row r="48">
       <c r="A48" t="inlineStr">
         <is>
-          <t>Pedro Antonio González Soto</t>
+          <t>Marco Polo Angeles Lopez</t>
         </is>
       </c>
       <c r="B48" t="inlineStr">
         <is>
-          <t>2006251</t>
+          <t>1896974</t>
         </is>
       </c>
       <c r="C48" t="inlineStr">
         <is>
-          <t>16:25:46</t>
+          <t>16:30:24</t>
         </is>
       </c>
       <c r="D48" t="inlineStr">
         <is>
-          <t>20:00:40</t>
+          <t>19:11:48</t>
         </is>
       </c>
     </row>
     <row r="49">
       <c r="A49" t="inlineStr">
         <is>
-          <t>Marco Polo Angeles Lopez</t>
+          <t>Aldo Maximino Ibarra Melendez</t>
         </is>
       </c>
       <c r="B49" t="inlineStr">
         <is>
-          <t>1896974</t>
+          <t>1736859</t>
         </is>
       </c>
       <c r="C49" t="inlineStr">
         <is>
-          <t>16:30:24</t>
+          <t>16:52:59</t>
         </is>
       </c>
       <c r="D49" t="inlineStr">
         <is>
-          <t>19:11:48</t>
+          <t>20:00:20</t>
         </is>
       </c>
     </row>
     <row r="50">
       <c r="A50" t="inlineStr">
         <is>
-          <t>Aldo Maximino Ibarra Melendez</t>
+          <t>Angel Martin Villa Palomares</t>
         </is>
       </c>
       <c r="B50" t="inlineStr">
         <is>
-          <t>1736859</t>
+          <t>1916397</t>
         </is>
       </c>
       <c r="C50" t="inlineStr">
         <is>
-          <t>16:52:59</t>
+          <t>17:44:11</t>
         </is>
       </c>
       <c r="D50" t="inlineStr">
-        <is>
-          <t>20:00:20</t>
-        </is>
-      </c>
-    </row>
-    <row r="51">
-      <c r="A51" t="inlineStr">
-        <is>
-          <t>Angel Martin Villa Palomares</t>
-        </is>
-      </c>
-      <c r="B51" t="inlineStr">
-        <is>
-          <t>1916397</t>
-        </is>
-      </c>
-      <c r="C51" t="inlineStr">
-        <is>
-          <t>17:44:11</t>
-        </is>
-      </c>
-      <c r="D51" t="inlineStr">
         <is>
           <t>19:59:15</t>
         </is>
@@ -8284,16 +8924,16 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F64"/>
+  <dimension ref="A1:F61"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A22" workbookViewId="0">
-      <selection activeCell="I23" sqref="I23"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="N42" sqref="N42"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="9.140625" defaultRowHeight="15"/>
   <cols>
-    <col width="52.42578125" customWidth="1" style="4" min="1" max="1"/>
-    <col width="10.7109375" bestFit="1" customWidth="1" style="4" min="6" max="6"/>
+    <col width="52.42578125" customWidth="1" style="6" min="1" max="1"/>
+    <col width="10.7109375" bestFit="1" customWidth="1" style="6" min="6" max="6"/>
   </cols>
   <sheetData>
     <row r="1">
@@ -8535,295 +9175,329 @@
           <t>15:11:28</t>
         </is>
       </c>
+      <c r="E10" t="inlineStr">
+        <is>
+          <t>4</t>
+        </is>
+      </c>
+      <c r="F10" t="inlineStr">
+        <is>
+          <t>13/02/24</t>
+        </is>
+      </c>
     </row>
     <row r="11">
-      <c r="E11" t="inlineStr">
-        <is>
-          <t>4</t>
-        </is>
-      </c>
-      <c r="F11" t="inlineStr">
-        <is>
-          <t>13/02/24</t>
+      <c r="A11" t="inlineStr">
+        <is>
+          <t>Aitor Santiago Medellin Silva</t>
+        </is>
+      </c>
+      <c r="B11" t="inlineStr">
+        <is>
+          <t>1964785</t>
+        </is>
+      </c>
+      <c r="C11" s="1" t="n">
+        <v>0.3820949074074074</v>
+      </c>
+      <c r="D11" t="inlineStr">
+        <is>
+          <t>13:48:55</t>
         </is>
       </c>
     </row>
     <row r="12">
       <c r="A12" t="inlineStr">
         <is>
-          <t>Aitor Santiago Medellin Silva</t>
+          <t>Leslie Fernanda Estrada Delgado</t>
         </is>
       </c>
       <c r="B12" t="inlineStr">
         <is>
-          <t>1964785</t>
-        </is>
-      </c>
-      <c r="C12" s="1" t="n">
-        <v>0.3820949074074074</v>
+          <t>2086185</t>
+        </is>
+      </c>
+      <c r="C12" t="inlineStr">
+        <is>
+          <t>09:19:43</t>
+        </is>
       </c>
       <c r="D12" t="inlineStr">
         <is>
-          <t>13:48:55</t>
+          <t>13:01:54</t>
         </is>
       </c>
     </row>
     <row r="13">
       <c r="A13" t="inlineStr">
         <is>
-          <t>Leslie Fernanda Estrada Delgado</t>
+          <t>Luis Cesar Carlon Gonzalez</t>
         </is>
       </c>
       <c r="B13" t="inlineStr">
         <is>
-          <t>2086185</t>
-        </is>
-      </c>
-      <c r="C13" t="inlineStr">
-        <is>
-          <t>09:19:43</t>
-        </is>
+          <t>1941417</t>
+        </is>
+      </c>
+      <c r="C13" s="1" t="n">
+        <v>0.3392361111111111</v>
       </c>
       <c r="D13" t="inlineStr">
         <is>
-          <t>13:01:54</t>
+          <t>16:02:21</t>
         </is>
       </c>
     </row>
     <row r="14">
       <c r="A14" t="inlineStr">
         <is>
-          <t>Luis Cesar Carlon Gonzalez</t>
+          <t>Cesar Alexandro Guerra Gonzalez</t>
         </is>
       </c>
       <c r="B14" t="inlineStr">
         <is>
-          <t>1941417</t>
-        </is>
-      </c>
-      <c r="C14" s="3" t="inlineStr">
-        <is>
-          <t>09:58:30</t>
-        </is>
+          <t>1917267</t>
+        </is>
+      </c>
+      <c r="C14" s="1" t="n">
+        <v>0.422349537037037</v>
       </c>
       <c r="D14" t="inlineStr">
         <is>
-          <t>16:02:21</t>
+          <t>14:10:35</t>
         </is>
       </c>
     </row>
     <row r="15">
       <c r="A15" t="inlineStr">
         <is>
-          <t>Cesar Alexandro Guerra Gonzalez</t>
+          <t>Israel Diaz Rosario</t>
         </is>
       </c>
       <c r="B15" t="inlineStr">
         <is>
-          <t>1917267</t>
-        </is>
-      </c>
-      <c r="C15" s="1" t="n">
-        <v>0.422349537037037</v>
+          <t>2086303</t>
+        </is>
+      </c>
+      <c r="C15" t="inlineStr">
+        <is>
+          <t>10:22:09</t>
+        </is>
       </c>
       <c r="D15" t="inlineStr">
         <is>
-          <t>14:10:35</t>
+          <t>15:31:52</t>
         </is>
       </c>
     </row>
     <row r="16">
       <c r="A16" t="inlineStr">
         <is>
-          <t>Israel Diaz Rosario</t>
+          <t>John Robert Abel Castillo Martinez</t>
         </is>
       </c>
       <c r="B16" t="inlineStr">
         <is>
-          <t>2086303</t>
+          <t>1999405</t>
         </is>
       </c>
       <c r="C16" t="inlineStr">
         <is>
-          <t>10:22:09</t>
+          <t>10:26:11</t>
         </is>
       </c>
       <c r="D16" t="inlineStr">
         <is>
-          <t>15:31:52</t>
+          <t>14:34:02</t>
         </is>
       </c>
     </row>
     <row r="17">
       <c r="A17" t="inlineStr">
         <is>
-          <t>John Robert Abel Castillo Martinez</t>
+          <t>Jorge Lucio Estupiñan Reyna</t>
         </is>
       </c>
       <c r="B17" t="inlineStr">
         <is>
-          <t>1999405</t>
+          <t>1841756</t>
         </is>
       </c>
       <c r="C17" t="inlineStr">
         <is>
-          <t>10:26:11</t>
+          <t>10:33:21</t>
         </is>
       </c>
       <c r="D17" t="inlineStr">
         <is>
-          <t>14:34:02</t>
+          <t>14:57:57</t>
         </is>
       </c>
     </row>
     <row r="18">
       <c r="A18" t="inlineStr">
         <is>
-          <t>Jorge Lucio Estupiñan Reyna</t>
+          <t>Gilberto Jair Mejia Mercado</t>
         </is>
       </c>
       <c r="B18" t="inlineStr">
         <is>
-          <t>1841756</t>
+          <t>1919157</t>
         </is>
       </c>
       <c r="C18" t="inlineStr">
         <is>
-          <t>10:33:21</t>
+          <t>10:36:05</t>
         </is>
       </c>
       <c r="D18" t="inlineStr">
         <is>
-          <t>14:57:57</t>
+          <t>14:58:07</t>
         </is>
       </c>
     </row>
     <row r="19">
       <c r="A19" t="inlineStr">
         <is>
-          <t>Gilberto Jair Mejia Mercado</t>
+          <t>Juan Carlos Reyna Padilla</t>
         </is>
       </c>
       <c r="B19" t="inlineStr">
         <is>
-          <t>1919157</t>
+          <t>1990025</t>
         </is>
       </c>
       <c r="C19" t="inlineStr">
         <is>
-          <t>10:36:05</t>
-        </is>
-      </c>
-      <c r="D19" t="inlineStr">
-        <is>
-          <t>14:58:07</t>
-        </is>
+          <t>10:37:08</t>
+        </is>
+      </c>
+      <c r="D19" s="2" t="n">
+        <v>0.6875</v>
       </c>
     </row>
     <row r="20">
       <c r="A20" t="inlineStr">
         <is>
-          <t>Juan Carlos Reyna Padilla</t>
+          <t>Diego Jasiel Amaro Renteria</t>
         </is>
       </c>
       <c r="B20" t="inlineStr">
         <is>
-          <t>1990025</t>
+          <t>1994123</t>
         </is>
       </c>
       <c r="C20" t="inlineStr">
         <is>
-          <t>10:37:08</t>
+          <t>11:05:26</t>
+        </is>
+      </c>
+      <c r="D20" t="inlineStr">
+        <is>
+          <t>17:42:39</t>
         </is>
       </c>
     </row>
     <row r="21">
       <c r="A21" t="inlineStr">
         <is>
-          <t>Diego Jasiel Amaro Renteria</t>
+          <t>Monica Carolina Puentes Briones</t>
         </is>
       </c>
       <c r="B21" t="inlineStr">
         <is>
-          <t>1994123</t>
+          <t>2086163</t>
         </is>
       </c>
       <c r="C21" t="inlineStr">
         <is>
-          <t>11:05:26</t>
+          <t>11:16:18</t>
         </is>
       </c>
       <c r="D21" t="inlineStr">
         <is>
-          <t>17:42:39</t>
+          <t>14:03:15</t>
         </is>
       </c>
     </row>
     <row r="22">
       <c r="A22" t="inlineStr">
         <is>
-          <t>Monica Carolina Puentes Briones</t>
+          <t>Mauricio Alejandro Rodriguez Chavez</t>
         </is>
       </c>
       <c r="B22" t="inlineStr">
         <is>
-          <t>2086163</t>
+          <t>1948219</t>
         </is>
       </c>
       <c r="C22" t="inlineStr">
         <is>
-          <t>11:16:18</t>
-        </is>
-      </c>
-      <c r="D22" t="inlineStr">
-        <is>
-          <t>14:03:15</t>
-        </is>
+          <t>11:47:35</t>
+        </is>
+      </c>
+      <c r="D22" s="2" t="n">
+        <v>0.6576388888888889</v>
       </c>
     </row>
     <row r="23">
       <c r="A23" t="inlineStr">
         <is>
-          <t>Mauricio Alejandro Rodriguez Chavez</t>
+          <t>Kenia Sarahy Zamora Marroquin</t>
         </is>
       </c>
       <c r="B23" t="inlineStr">
         <is>
-          <t>1948219</t>
+          <t>1815310</t>
         </is>
       </c>
       <c r="C23" t="inlineStr">
         <is>
-          <t>11:47:35</t>
-        </is>
+          <t>12:00:15</t>
+        </is>
+      </c>
+      <c r="D23" t="inlineStr">
+        <is>
+          <t>18:49:18</t>
+        </is>
+      </c>
+      <c r="E23" s="3" t="n">
+        <v>3</v>
+      </c>
+      <c r="F23" s="4" t="n">
+        <v>45709</v>
       </c>
     </row>
     <row r="24">
       <c r="A24" t="inlineStr">
         <is>
-          <t>Kenia Sarahy Zamora Marroquin</t>
+          <t>Cesar Alejandro Rodriguez Perez</t>
         </is>
       </c>
       <c r="B24" t="inlineStr">
         <is>
-          <t>1815310</t>
+          <t>1734223</t>
         </is>
       </c>
       <c r="C24" t="inlineStr">
         <is>
-          <t>12:00:15</t>
+          <t>12:12:22</t>
         </is>
       </c>
       <c r="D24" t="inlineStr">
         <is>
-          <t>18:49:18</t>
-        </is>
-      </c>
-      <c r="E24" s="3" t="n">
-        <v>3</v>
-      </c>
-      <c r="F24" s="6" t="n">
-        <v>45709</v>
+          <t>18:02:22</t>
+        </is>
+      </c>
+      <c r="E24" t="inlineStr">
+        <is>
+          <t>2</t>
+        </is>
+      </c>
+      <c r="F24" t="inlineStr">
+        <is>
+          <t>17/02/25</t>
+        </is>
       </c>
     </row>
     <row r="25">
@@ -8852,7 +9526,7 @@
           <t>3</t>
         </is>
       </c>
-      <c r="F25" s="6" t="n">
+      <c r="F25" s="4" t="n">
         <v>45709</v>
       </c>
     </row>
@@ -9067,627 +9741,592 @@
     <row r="35">
       <c r="A35" t="inlineStr">
         <is>
-          <t>Cesar Alejandro Rodriguez Perez</t>
+          <t>Cristian Salazar Bautista</t>
         </is>
       </c>
       <c r="B35" t="inlineStr">
         <is>
-          <t>1734223</t>
-        </is>
-      </c>
-      <c r="C35" s="5" t="inlineStr">
-        <is>
-          <t>12:12:22</t>
+          <t>1964253</t>
+        </is>
+      </c>
+      <c r="C35" t="inlineStr">
+        <is>
+          <t>14:38:35</t>
         </is>
       </c>
       <c r="D35" t="inlineStr">
         <is>
-          <t>18:02:22</t>
-        </is>
-      </c>
-      <c r="E35" t="inlineStr">
-        <is>
-          <t>2</t>
-        </is>
-      </c>
-      <c r="F35" t="inlineStr">
-        <is>
-          <t>17/02/25</t>
+          <t>19:05:33</t>
+        </is>
+      </c>
+    </row>
+    <row r="36">
+      <c r="A36" t="inlineStr">
+        <is>
+          <t>Maria Elena Ibarra Garcia</t>
+        </is>
+      </c>
+      <c r="B36" t="inlineStr">
+        <is>
+          <t>1844248</t>
+        </is>
+      </c>
+      <c r="C36" t="inlineStr">
+        <is>
+          <t>14:46:03</t>
+        </is>
+      </c>
+      <c r="D36" t="inlineStr">
+        <is>
+          <t>19:50:35</t>
         </is>
       </c>
     </row>
     <row r="37">
-      <c r="F37" s="5" t="n"/>
+      <c r="A37" t="inlineStr">
+        <is>
+          <t>Lizbeth America Rodriguez Gomez</t>
+        </is>
+      </c>
+      <c r="B37" t="inlineStr">
+        <is>
+          <t>1902085</t>
+        </is>
+      </c>
+      <c r="C37" t="inlineStr">
+        <is>
+          <t>14:49:56</t>
+        </is>
+      </c>
+      <c r="D37" t="inlineStr">
+        <is>
+          <t>19:55:35</t>
+        </is>
+      </c>
     </row>
     <row r="38">
       <c r="A38" t="inlineStr">
         <is>
-          <t>Cristian Salazar Bautista</t>
+          <t>Jelmy Gerardo Lopez Garcia</t>
         </is>
       </c>
       <c r="B38" t="inlineStr">
         <is>
-          <t>1964253</t>
+          <t>1989937</t>
         </is>
       </c>
       <c r="C38" t="inlineStr">
         <is>
-          <t>14:38:35</t>
+          <t>14:53:40</t>
         </is>
       </c>
       <c r="D38" t="inlineStr">
         <is>
-          <t>19:05:33</t>
+          <t>19:45:23</t>
         </is>
       </c>
     </row>
     <row r="39">
       <c r="A39" t="inlineStr">
         <is>
-          <t>Maria Elena Ibarra Garcia</t>
+          <t>Edgar Rangel Muñoz</t>
         </is>
       </c>
       <c r="B39" t="inlineStr">
         <is>
-          <t>1844248</t>
+          <t>1921766</t>
         </is>
       </c>
       <c r="C39" t="inlineStr">
         <is>
-          <t>14:46:03</t>
+          <t>15:10:00</t>
         </is>
       </c>
       <c r="D39" t="inlineStr">
         <is>
-          <t>19:50:35</t>
+          <t>19:53:28</t>
         </is>
       </c>
     </row>
     <row r="40">
       <c r="A40" t="inlineStr">
         <is>
-          <t>Lizbeth America Rodriguez Gomez</t>
+          <t>Andres Emilio Acosta Hernandez</t>
         </is>
       </c>
       <c r="B40" t="inlineStr">
         <is>
-          <t>1902085</t>
+          <t>1896556</t>
         </is>
       </c>
       <c r="C40" t="inlineStr">
         <is>
-          <t>14:49:56</t>
+          <t>15:10:09</t>
         </is>
       </c>
       <c r="D40" t="inlineStr">
         <is>
-          <t>19:55:35</t>
+          <t>19:53:18</t>
         </is>
       </c>
     </row>
     <row r="41">
       <c r="A41" t="inlineStr">
         <is>
-          <t>Jelmy Gerardo Lopez Garcia</t>
+          <t>Francisco Javier Cañedo Lizarraga</t>
         </is>
       </c>
       <c r="B41" t="inlineStr">
         <is>
-          <t>1989937</t>
+          <t>2076289</t>
         </is>
       </c>
       <c r="C41" t="inlineStr">
         <is>
-          <t>14:53:40</t>
+          <t>15:12:16</t>
         </is>
       </c>
       <c r="D41" t="inlineStr">
         <is>
-          <t>19:45:23</t>
+          <t>19:25:59</t>
         </is>
       </c>
     </row>
     <row r="42">
       <c r="A42" t="inlineStr">
         <is>
-          <t>Edgar Rangel Muñoz</t>
+          <t>Luis Gerardo Coronado Rodríguez</t>
         </is>
       </c>
       <c r="B42" t="inlineStr">
         <is>
-          <t>1921766</t>
+          <t>1909051</t>
         </is>
       </c>
       <c r="C42" t="inlineStr">
         <is>
-          <t>15:10:00</t>
+          <t>15:12:26</t>
         </is>
       </c>
       <c r="D42" t="inlineStr">
         <is>
-          <t>19:53:28</t>
+          <t>19:26:09</t>
         </is>
       </c>
     </row>
     <row r="43">
       <c r="A43" t="inlineStr">
         <is>
-          <t>Andres Emilio Acosta Hernandez</t>
+          <t>Daniel Alejandro Cruz Polo</t>
         </is>
       </c>
       <c r="B43" t="inlineStr">
         <is>
-          <t>1896556</t>
+          <t>1795240</t>
         </is>
       </c>
       <c r="C43" t="inlineStr">
         <is>
-          <t>15:10:09</t>
+          <t>15:14:49</t>
         </is>
       </c>
       <c r="D43" t="inlineStr">
         <is>
-          <t>19:53:18</t>
+          <t>18:51:39</t>
         </is>
       </c>
     </row>
     <row r="44">
       <c r="A44" t="inlineStr">
         <is>
-          <t>Francisco Javier Cañedo Lizarraga</t>
+          <t>Cristobal Caballero Moreno</t>
         </is>
       </c>
       <c r="B44" t="inlineStr">
         <is>
-          <t>2076289</t>
+          <t>1967859</t>
         </is>
       </c>
       <c r="C44" t="inlineStr">
         <is>
-          <t>15:12:16</t>
+          <t>15:14:57</t>
         </is>
       </c>
       <c r="D44" t="inlineStr">
         <is>
-          <t>19:25:59</t>
+          <t>19:25:29</t>
         </is>
       </c>
     </row>
     <row r="45">
       <c r="A45" t="inlineStr">
         <is>
-          <t>Luis Gerardo Coronado Rodríguez</t>
+          <t>Ruth Garza Garcia</t>
         </is>
       </c>
       <c r="B45" t="inlineStr">
         <is>
-          <t>1909051</t>
+          <t>2022318</t>
         </is>
       </c>
       <c r="C45" t="inlineStr">
         <is>
-          <t>15:12:26</t>
+          <t>15:45:08</t>
         </is>
       </c>
       <c r="D45" t="inlineStr">
         <is>
-          <t>19:26:09</t>
+          <t>19:55:04</t>
         </is>
       </c>
     </row>
     <row r="46">
       <c r="A46" t="inlineStr">
         <is>
-          <t>Daniel Alejandro Cruz Polo</t>
+          <t>Karen Victoria Vargas Cruz</t>
         </is>
       </c>
       <c r="B46" t="inlineStr">
         <is>
-          <t>1795240</t>
+          <t>1960023</t>
         </is>
       </c>
       <c r="C46" t="inlineStr">
         <is>
-          <t>15:14:49</t>
+          <t>15:47:02</t>
         </is>
       </c>
       <c r="D46" t="inlineStr">
         <is>
-          <t>18:51:39</t>
+          <t>19:56:35</t>
         </is>
       </c>
     </row>
     <row r="47">
       <c r="A47" t="inlineStr">
         <is>
-          <t>Cristobal Caballero Moreno</t>
+          <t>Nelly Rangel Jimenez</t>
         </is>
       </c>
       <c r="B47" t="inlineStr">
         <is>
-          <t>1967859</t>
+          <t>2076253</t>
         </is>
       </c>
       <c r="C47" t="inlineStr">
         <is>
-          <t>15:14:57</t>
+          <t>15:47:08</t>
         </is>
       </c>
       <c r="D47" t="inlineStr">
         <is>
-          <t>19:25:29</t>
+          <t>19:56:23</t>
         </is>
       </c>
     </row>
     <row r="48">
       <c r="A48" t="inlineStr">
         <is>
-          <t>Ruth Garza Garcia</t>
+          <t>Leonardo Sanchez Diaz</t>
         </is>
       </c>
       <c r="B48" t="inlineStr">
         <is>
-          <t>2022318</t>
+          <t>1900585</t>
         </is>
       </c>
       <c r="C48" t="inlineStr">
         <is>
-          <t>15:45:08</t>
+          <t>15:51:23</t>
         </is>
       </c>
       <c r="D48" t="inlineStr">
         <is>
-          <t>19:55:04</t>
+          <t>19:54:56</t>
         </is>
       </c>
     </row>
     <row r="49">
       <c r="A49" t="inlineStr">
         <is>
-          <t>Karen Victoria Vargas Cruz</t>
+          <t>Gabriel Omar Briseño Pinales</t>
         </is>
       </c>
       <c r="B49" t="inlineStr">
         <is>
-          <t>1960023</t>
+          <t>1996314</t>
         </is>
       </c>
       <c r="C49" t="inlineStr">
         <is>
-          <t>15:47:02</t>
+          <t>15:53:42</t>
         </is>
       </c>
       <c r="D49" t="inlineStr">
         <is>
-          <t>19:56:35</t>
+          <t>19:55:28</t>
         </is>
       </c>
     </row>
     <row r="50">
       <c r="A50" t="inlineStr">
         <is>
-          <t>Nelly Rangel Jimenez</t>
+          <t>Marintia Anahi Treviño Rodriguez</t>
         </is>
       </c>
       <c r="B50" t="inlineStr">
         <is>
-          <t>2076253</t>
+          <t>1813720</t>
         </is>
       </c>
       <c r="C50" t="inlineStr">
         <is>
-          <t>15:47:08</t>
+          <t>16:00:34</t>
         </is>
       </c>
       <c r="D50" t="inlineStr">
         <is>
-          <t>19:56:23</t>
+          <t>19:54:46</t>
         </is>
       </c>
     </row>
     <row r="51">
       <c r="A51" t="inlineStr">
         <is>
-          <t>Leonardo Sanchez Diaz</t>
+          <t>Oscar Arath Vasquez Morales</t>
         </is>
       </c>
       <c r="B51" t="inlineStr">
         <is>
-          <t>1900585</t>
+          <t>2086292</t>
         </is>
       </c>
       <c r="C51" t="inlineStr">
         <is>
-          <t>15:51:23</t>
+          <t>16:03:19</t>
         </is>
       </c>
       <c r="D51" t="inlineStr">
         <is>
-          <t>19:54:56</t>
+          <t>19:52:57</t>
         </is>
       </c>
     </row>
     <row r="52">
       <c r="A52" t="inlineStr">
         <is>
-          <t>Gabriel Omar Briseño Pinales</t>
+          <t>Barbara Fitch Espinosa</t>
         </is>
       </c>
       <c r="B52" t="inlineStr">
         <is>
-          <t>1996314</t>
+          <t>1957128</t>
         </is>
       </c>
       <c r="C52" t="inlineStr">
         <is>
-          <t>15:53:42</t>
+          <t>16:06:21</t>
         </is>
       </c>
       <c r="D52" t="inlineStr">
         <is>
-          <t>19:55:28</t>
+          <t>20:08:27</t>
         </is>
       </c>
     </row>
     <row r="53">
       <c r="A53" t="inlineStr">
         <is>
-          <t>Marintia Anahi Treviño Rodriguez</t>
+          <t>Martin Esequiel Hernandez Silva</t>
         </is>
       </c>
       <c r="B53" t="inlineStr">
         <is>
-          <t>1813720</t>
+          <t>1847137</t>
         </is>
       </c>
       <c r="C53" t="inlineStr">
         <is>
-          <t>16:00:34</t>
+          <t>16:06:34</t>
         </is>
       </c>
       <c r="D53" t="inlineStr">
         <is>
-          <t>19:54:46</t>
+          <t>19:53:10</t>
         </is>
       </c>
     </row>
     <row r="54">
       <c r="A54" t="inlineStr">
         <is>
-          <t>Oscar Arath Vasquez Morales</t>
+          <t>Juan Carlos Tapia Baeza</t>
         </is>
       </c>
       <c r="B54" t="inlineStr">
         <is>
-          <t>2086292</t>
+          <t>2086212</t>
         </is>
       </c>
       <c r="C54" t="inlineStr">
         <is>
-          <t>16:03:19</t>
+          <t>16:09:26</t>
         </is>
       </c>
       <c r="D54" t="inlineStr">
         <is>
-          <t>19:52:57</t>
+          <t>19:55:12</t>
         </is>
       </c>
     </row>
     <row r="55">
       <c r="A55" t="inlineStr">
         <is>
-          <t>Barbara Fitch Espinosa</t>
+          <t>Pedro Antonio González Soto</t>
         </is>
       </c>
       <c r="B55" t="inlineStr">
         <is>
-          <t>1957128</t>
+          <t>2006251</t>
         </is>
       </c>
       <c r="C55" t="inlineStr">
         <is>
-          <t>16:06:21</t>
+          <t>16:11:52</t>
         </is>
       </c>
       <c r="D55" t="inlineStr">
         <is>
-          <t>20:08:27</t>
+          <t>19:55:21</t>
         </is>
       </c>
     </row>
     <row r="56">
       <c r="A56" t="inlineStr">
         <is>
-          <t>Martin Esequiel Hernandez Silva</t>
+          <t>Edgar Eduardo Hernandez Mariscal</t>
         </is>
       </c>
       <c r="B56" t="inlineStr">
         <is>
-          <t>1847137</t>
+          <t>1896993</t>
         </is>
       </c>
       <c r="C56" t="inlineStr">
         <is>
-          <t>16:06:34</t>
+          <t>16:19:31</t>
         </is>
       </c>
       <c r="D56" t="inlineStr">
         <is>
-          <t>19:53:10</t>
+          <t>19:53:42</t>
         </is>
       </c>
     </row>
     <row r="57">
       <c r="A57" t="inlineStr">
         <is>
-          <t>Juan Carlos Tapia Baeza</t>
+          <t>Marco Polo Angeles Lopez</t>
         </is>
       </c>
       <c r="B57" t="inlineStr">
         <is>
-          <t>2086212</t>
+          <t>1896974</t>
         </is>
       </c>
       <c r="C57" t="inlineStr">
         <is>
-          <t>16:09:26</t>
+          <t>16:30:03</t>
         </is>
       </c>
       <c r="D57" t="inlineStr">
         <is>
-          <t>19:55:12</t>
+          <t>19:51:47</t>
         </is>
       </c>
     </row>
     <row r="58">
       <c r="A58" t="inlineStr">
         <is>
-          <t>Pedro Antonio González Soto</t>
+          <t>Ana Sofia Sandoval de la Torre</t>
         </is>
       </c>
       <c r="B58" t="inlineStr">
         <is>
-          <t>2006251</t>
+          <t>2076222</t>
         </is>
       </c>
       <c r="C58" t="inlineStr">
         <is>
-          <t>16:11:52</t>
+          <t>16:40:29</t>
         </is>
       </c>
       <c r="D58" t="inlineStr">
         <is>
-          <t>19:55:21</t>
+          <t>19:54:35</t>
         </is>
       </c>
     </row>
     <row r="59">
       <c r="A59" t="inlineStr">
         <is>
-          <t>Edgar Eduardo Hernandez Mariscal</t>
+          <t>Aidan Eduardo Rodriguez Bautista</t>
         </is>
       </c>
       <c r="B59" t="inlineStr">
         <is>
-          <t>1896993</t>
+          <t>2076315</t>
         </is>
       </c>
       <c r="C59" t="inlineStr">
         <is>
-          <t>16:19:31</t>
+          <t>17:02:20</t>
         </is>
       </c>
       <c r="D59" t="inlineStr">
         <is>
-          <t>19:53:42</t>
+          <t>19:45:50</t>
         </is>
       </c>
     </row>
     <row r="60">
       <c r="A60" t="inlineStr">
         <is>
-          <t>Marco Polo Angeles Lopez</t>
+          <t>Aldo Maximino Ibarra Melendez</t>
         </is>
       </c>
       <c r="B60" t="inlineStr">
         <is>
-          <t>1896974</t>
+          <t>1736859</t>
         </is>
       </c>
       <c r="C60" t="inlineStr">
         <is>
-          <t>16:30:03</t>
+          <t>17:11:42</t>
         </is>
       </c>
       <c r="D60" t="inlineStr">
         <is>
-          <t>19:51:47</t>
+          <t>19:55:54</t>
         </is>
       </c>
     </row>
     <row r="61">
       <c r="A61" t="inlineStr">
         <is>
-          <t>Ana Sofia Sandoval de la Torre</t>
+          <t>Angel Martin Villa Palomares</t>
         </is>
       </c>
       <c r="B61" t="inlineStr">
         <is>
-          <t>2076222</t>
+          <t>1916397</t>
         </is>
       </c>
       <c r="C61" t="inlineStr">
         <is>
-          <t>16:40:29</t>
+          <t>17:30:06</t>
         </is>
       </c>
       <c r="D61" t="inlineStr">
-        <is>
-          <t>19:54:35</t>
-        </is>
-      </c>
-    </row>
-    <row r="62">
-      <c r="A62" t="inlineStr">
-        <is>
-          <t>Aidan Eduardo Rodriguez Bautista</t>
-        </is>
-      </c>
-      <c r="B62" t="inlineStr">
-        <is>
-          <t>2076315</t>
-        </is>
-      </c>
-      <c r="C62" t="inlineStr">
-        <is>
-          <t>17:02:20</t>
-        </is>
-      </c>
-      <c r="D62" t="inlineStr">
-        <is>
-          <t>19:45:50</t>
-        </is>
-      </c>
-    </row>
-    <row r="63">
-      <c r="A63" t="inlineStr">
-        <is>
-          <t>Aldo Maximino Ibarra Melendez</t>
-        </is>
-      </c>
-      <c r="B63" t="inlineStr">
-        <is>
-          <t>1736859</t>
-        </is>
-      </c>
-      <c r="C63" t="inlineStr">
-        <is>
-          <t>17:11:42</t>
-        </is>
-      </c>
-      <c r="D63" t="inlineStr">
-        <is>
-          <t>19:55:54</t>
-        </is>
-      </c>
-    </row>
-    <row r="64">
-      <c r="A64" t="inlineStr">
-        <is>
-          <t>Angel Martin Villa Palomares</t>
-        </is>
-      </c>
-      <c r="B64" t="inlineStr">
-        <is>
-          <t>1916397</t>
-        </is>
-      </c>
-      <c r="C64" t="inlineStr">
-        <is>
-          <t>17:30:06</t>
-        </is>
-      </c>
-      <c r="D64" t="inlineStr">
         <is>
           <t>19:14:34</t>
         </is>
@@ -9704,13 +10343,16 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F21"/>
+  <dimension ref="A1:F32"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="A1" sqref="A1"/>
+      <selection activeCell="L11" sqref="L11"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="9.140625" defaultRowHeight="15"/>
+  <cols>
+    <col width="37.140625" customWidth="1" style="6" min="1" max="1"/>
+  </cols>
   <sheetData>
     <row r="1">
       <c r="A1" t="inlineStr">
@@ -9760,6 +10402,11 @@
           <t>06:48:21</t>
         </is>
       </c>
+      <c r="D2" t="inlineStr">
+        <is>
+          <t>11:59:35</t>
+        </is>
+      </c>
     </row>
     <row r="3">
       <c r="A3" t="inlineStr">
@@ -9777,6 +10424,9 @@
           <t>07:30:11</t>
         </is>
       </c>
+      <c r="D3" s="1" t="n">
+        <v>0.6683680555555556</v>
+      </c>
       <c r="E3" t="inlineStr">
         <is>
           <t>4</t>
@@ -9804,6 +10454,21 @@
           <t>07:47:01</t>
         </is>
       </c>
+      <c r="D4" t="inlineStr">
+        <is>
+          <t>13:53:25</t>
+        </is>
+      </c>
+      <c r="E4" t="inlineStr">
+        <is>
+          <t>2</t>
+        </is>
+      </c>
+      <c r="F4" t="inlineStr">
+        <is>
+          <t>21/02/2025</t>
+        </is>
+      </c>
     </row>
     <row r="5">
       <c r="A5" t="inlineStr">
@@ -9821,283 +10486,1963 @@
           <t>07:58:22</t>
         </is>
       </c>
+      <c r="D5" t="inlineStr">
+        <is>
+          <t>12:17:12</t>
+        </is>
+      </c>
     </row>
     <row r="6">
       <c r="A6" t="inlineStr">
         <is>
-          <t>John Robert Abel Castillo Martinez</t>
+          <t>Luis Cesar Carlon Gonzalez</t>
         </is>
       </c>
       <c r="B6" t="inlineStr">
         <is>
-          <t>1999405</t>
-        </is>
-      </c>
-      <c r="C6" t="inlineStr">
-        <is>
-          <t>08:11:21</t>
+          <t>1941417</t>
+        </is>
+      </c>
+      <c r="C6" s="1" t="n">
+        <v>0.3367013888888889</v>
+      </c>
+      <c r="D6" t="inlineStr">
+        <is>
+          <t>15:16:45</t>
         </is>
       </c>
     </row>
     <row r="7">
       <c r="A7" t="inlineStr">
         <is>
-          <t>Sofia Pamela Bautista Vazquez</t>
+          <t>John Robert Abel Castillo Martinez</t>
         </is>
       </c>
       <c r="B7" t="inlineStr">
         <is>
-          <t>1978525</t>
+          <t>1999405</t>
         </is>
       </c>
       <c r="C7" t="inlineStr">
         <is>
-          <t>08:28:52</t>
+          <t>08:11:21</t>
+        </is>
+      </c>
+      <c r="D7" t="inlineStr">
+        <is>
+          <t>12:14:08</t>
         </is>
       </c>
     </row>
     <row r="8">
       <c r="A8" t="inlineStr">
         <is>
-          <t>Oscar Daniel Muñoz Valenzuela</t>
+          <t>Sofia Pamela Bautista Vazquez</t>
         </is>
       </c>
       <c r="B8" t="inlineStr">
         <is>
-          <t>1878198</t>
+          <t>1978525</t>
         </is>
       </c>
       <c r="C8" t="inlineStr">
         <is>
-          <t>08:57:54</t>
+          <t>08:28:52</t>
+        </is>
+      </c>
+      <c r="D8" t="inlineStr">
+        <is>
+          <t>12:05:56</t>
         </is>
       </c>
     </row>
     <row r="9">
       <c r="A9" t="inlineStr">
         <is>
-          <t>Lizbeth America Rodriguez Gomez</t>
+          <t>Oscar Daniel Muñoz Valenzuela</t>
         </is>
       </c>
       <c r="B9" t="inlineStr">
         <is>
-          <t>1902085</t>
+          <t>1878198</t>
         </is>
       </c>
       <c r="C9" t="inlineStr">
         <is>
-          <t>09:11:03</t>
+          <t>08:57:54</t>
+        </is>
+      </c>
+      <c r="D9" t="inlineStr">
+        <is>
+          <t>11:50:57</t>
         </is>
       </c>
     </row>
     <row r="10">
       <c r="A10" t="inlineStr">
         <is>
-          <t>Leslie Fernanda Estrada Delgado</t>
+          <t>Lizbeth America Rodriguez Gomez</t>
         </is>
       </c>
       <c r="B10" t="inlineStr">
         <is>
-          <t>2086185</t>
+          <t>1902085</t>
         </is>
       </c>
       <c r="C10" t="inlineStr">
         <is>
-          <t>09:18:50</t>
+          <t>09:11:03</t>
+        </is>
+      </c>
+      <c r="D10" t="inlineStr">
+        <is>
+          <t>14:08:47</t>
+        </is>
+      </c>
+      <c r="E10" t="inlineStr">
+        <is>
+          <t>4</t>
+        </is>
+      </c>
+      <c r="F10" t="inlineStr">
+        <is>
+          <t>18/02/2025</t>
         </is>
       </c>
     </row>
     <row r="11">
       <c r="A11" t="inlineStr">
         <is>
-          <t>Citlaly Guadalupe Fuentes Cordova</t>
+          <t>Leslie Fernanda Estrada Delgado</t>
         </is>
       </c>
       <c r="B11" t="inlineStr">
         <is>
-          <t>2086283</t>
+          <t>2086185</t>
         </is>
       </c>
       <c r="C11" t="inlineStr">
         <is>
-          <t>09:21:33</t>
+          <t>09:18:50</t>
+        </is>
+      </c>
+      <c r="D11" t="inlineStr">
+        <is>
+          <t>13:52:37</t>
         </is>
       </c>
     </row>
     <row r="12">
       <c r="A12" t="inlineStr">
         <is>
-          <t>Cesar Alejandro Rodriguez Perez</t>
+          <t>Citlaly Guadalupe Fuentes Cordova</t>
         </is>
       </c>
       <c r="B12" t="inlineStr">
         <is>
-          <t>1734223</t>
+          <t>2086283</t>
         </is>
       </c>
       <c r="C12" t="inlineStr">
         <is>
-          <t>09:32:50</t>
+          <t>09:21:33</t>
+        </is>
+      </c>
+      <c r="D12" t="inlineStr">
+        <is>
+          <t>11:38:21</t>
         </is>
       </c>
     </row>
     <row r="13">
       <c r="A13" t="inlineStr">
         <is>
-          <t>Alan Emiliano Iturbide Leal</t>
+          <t>Cesar Alejandro Rodriguez Perez</t>
         </is>
       </c>
       <c r="B13" t="inlineStr">
         <is>
-          <t>2082907</t>
+          <t>1734223</t>
         </is>
       </c>
       <c r="C13" t="inlineStr">
         <is>
-          <t>09:34:59</t>
+          <t>09:32:50</t>
+        </is>
+      </c>
+      <c r="D13" t="inlineStr">
+        <is>
+          <t>13:30:30</t>
         </is>
       </c>
     </row>
     <row r="14">
       <c r="A14" t="inlineStr">
         <is>
-          <t>Gilberto Jair Mejia Mercado</t>
+          <t>Alan Emiliano Iturbide Leal</t>
         </is>
       </c>
       <c r="B14" t="inlineStr">
         <is>
-          <t>1919157</t>
+          <t>2082907</t>
         </is>
       </c>
       <c r="C14" t="inlineStr">
         <is>
-          <t>09:36:02</t>
+          <t>09:34:59</t>
+        </is>
+      </c>
+      <c r="D14" t="inlineStr">
+        <is>
+          <t>14:59:05</t>
         </is>
       </c>
     </row>
     <row r="15">
       <c r="A15" t="inlineStr">
         <is>
-          <t>Cesar Alexandro Guerra Gonzalez</t>
+          <t>Gilberto Jair Mejia Mercado</t>
         </is>
       </c>
       <c r="B15" t="inlineStr">
         <is>
-          <t>1917267</t>
+          <t>1919157</t>
         </is>
       </c>
       <c r="C15" t="inlineStr">
         <is>
-          <t>09:41:23</t>
+          <t>09:36:02</t>
+        </is>
+      </c>
+      <c r="D15" t="inlineStr">
+        <is>
+          <t>14:58:48</t>
         </is>
       </c>
     </row>
     <row r="16">
       <c r="A16" t="inlineStr">
         <is>
-          <t>Marintia Anahi Treviño Rodriguez</t>
+          <t>Cesar Alexandro Guerra Gonzalez</t>
         </is>
       </c>
       <c r="B16" t="inlineStr">
         <is>
-          <t>1813720</t>
+          <t>1917267</t>
         </is>
       </c>
       <c r="C16" t="inlineStr">
         <is>
-          <t>09:49:25</t>
+          <t>09:41:23</t>
+        </is>
+      </c>
+      <c r="D16" t="inlineStr">
+        <is>
+          <t>13:41:08</t>
         </is>
       </c>
     </row>
     <row r="17">
       <c r="A17" t="inlineStr">
         <is>
-          <t>Diego Jasiel Amaro Renteria</t>
+          <t>Marintia Anahi Treviño Rodriguez</t>
         </is>
       </c>
       <c r="B17" t="inlineStr">
         <is>
-          <t>1994123</t>
+          <t>1813720</t>
         </is>
       </c>
       <c r="C17" t="inlineStr">
         <is>
-          <t>09:50:44</t>
+          <t>09:49:25</t>
+        </is>
+      </c>
+      <c r="D17" t="inlineStr">
+        <is>
+          <t>15:16:38</t>
         </is>
       </c>
     </row>
     <row r="18">
       <c r="A18" t="inlineStr">
         <is>
-          <t>Aitor Santiago Medellin Silva</t>
+          <t>Diego Jasiel Amaro Renteria</t>
         </is>
       </c>
       <c r="B18" t="inlineStr">
         <is>
-          <t>1964785</t>
+          <t>1994123</t>
         </is>
       </c>
       <c r="C18" t="inlineStr">
         <is>
-          <t>09:54:09</t>
+          <t>09:50:44</t>
+        </is>
+      </c>
+      <c r="D18" t="inlineStr">
+        <is>
+          <t>11:03:15</t>
         </is>
       </c>
     </row>
     <row r="19">
       <c r="A19" t="inlineStr">
         <is>
-          <t>Jorge Lucio Estupiñan Reyna</t>
+          <t>Aitor Santiago Medellin Silva</t>
         </is>
       </c>
       <c r="B19" t="inlineStr">
         <is>
-          <t>1841756</t>
+          <t>1964785</t>
         </is>
       </c>
       <c r="C19" t="inlineStr">
         <is>
-          <t>09:57:00</t>
+          <t>09:54:09</t>
+        </is>
+      </c>
+      <c r="D19" t="inlineStr">
+        <is>
+          <t>13:52:23</t>
         </is>
       </c>
     </row>
     <row r="20">
       <c r="A20" t="inlineStr">
         <is>
-          <t>Itzel Escudero Delgado</t>
+          <t>Jorge Lucio Estupiñan Reyna</t>
         </is>
       </c>
       <c r="B20" t="inlineStr">
         <is>
-          <t>1968877</t>
+          <t>1841756</t>
         </is>
       </c>
       <c r="C20" t="inlineStr">
         <is>
-          <t>10:04:36</t>
+          <t>09:57:00</t>
+        </is>
+      </c>
+      <c r="D20" t="inlineStr">
+        <is>
+          <t>14:58:56</t>
         </is>
       </c>
     </row>
     <row r="21">
       <c r="A21" t="inlineStr">
         <is>
-          <t>Luis Cesar Carlon Gonzalez</t>
+          <t>Itzel Escudero Delgado</t>
         </is>
       </c>
       <c r="B21" t="inlineStr">
         <is>
-          <t>1941417</t>
+          <t>1968877</t>
         </is>
       </c>
       <c r="C21" t="inlineStr">
         <is>
-          <t>10:04:51</t>
-        </is>
-      </c>
-      <c r="D21" t="inlineStr"/>
-      <c r="E21" t="inlineStr"/>
-      <c r="F21" t="inlineStr"/>
+          <t>10:04:36</t>
+        </is>
+      </c>
+      <c r="D21" t="inlineStr">
+        <is>
+          <t>12:57:06</t>
+        </is>
+      </c>
+    </row>
+    <row r="22">
+      <c r="A22" t="inlineStr">
+        <is>
+          <t>Juan Carlos Reyna Padilla</t>
+        </is>
+      </c>
+      <c r="B22" t="inlineStr">
+        <is>
+          <t>1990025</t>
+        </is>
+      </c>
+      <c r="C22" t="inlineStr">
+        <is>
+          <t>10:41:09</t>
+        </is>
+      </c>
+      <c r="D22" t="inlineStr">
+        <is>
+          <t>15:52:35</t>
+        </is>
+      </c>
+      <c r="E22" t="inlineStr">
+        <is>
+          <t>1</t>
+        </is>
+      </c>
+      <c r="F22" t="inlineStr">
+        <is>
+          <t>20/02/2025</t>
+        </is>
+      </c>
+    </row>
+    <row r="23">
+      <c r="A23" t="inlineStr">
+        <is>
+          <t>Mauricio Alejandro Rodriguez Chavez</t>
+        </is>
+      </c>
+      <c r="B23" t="inlineStr">
+        <is>
+          <t>1948219</t>
+        </is>
+      </c>
+      <c r="C23" t="inlineStr">
+        <is>
+          <t>11:55:11</t>
+        </is>
+      </c>
+      <c r="D23" t="inlineStr">
+        <is>
+          <t>15:56:35</t>
+        </is>
+      </c>
+    </row>
+    <row r="24">
+      <c r="A24" t="inlineStr">
+        <is>
+          <t>Francisco Javier Cañedo Lizarraga</t>
+        </is>
+      </c>
+      <c r="B24" t="inlineStr">
+        <is>
+          <t>2076289</t>
+        </is>
+      </c>
+      <c r="C24" t="inlineStr">
+        <is>
+          <t>12:15:38</t>
+        </is>
+      </c>
+      <c r="D24" t="inlineStr">
+        <is>
+          <t>13:48:38</t>
+        </is>
+      </c>
+    </row>
+    <row r="25">
+      <c r="A25" t="inlineStr">
+        <is>
+          <t>Santiago Sebastian Alvarado Lozano</t>
+        </is>
+      </c>
+      <c r="B25" t="inlineStr">
+        <is>
+          <t>2076388</t>
+        </is>
+      </c>
+      <c r="C25" t="inlineStr">
+        <is>
+          <t>12:25:14</t>
+        </is>
+      </c>
+      <c r="D25" t="inlineStr">
+        <is>
+          <t>16:01:05</t>
+        </is>
+      </c>
+    </row>
+    <row r="26">
+      <c r="A26" t="inlineStr">
+        <is>
+          <t>Juan Carlos Garcia Vazquez</t>
+        </is>
+      </c>
+      <c r="B26" t="inlineStr">
+        <is>
+          <t>1919676</t>
+        </is>
+      </c>
+      <c r="C26" t="inlineStr">
+        <is>
+          <t>12:58:34</t>
+        </is>
+      </c>
+      <c r="D26" t="inlineStr">
+        <is>
+          <t>16:00:14</t>
+        </is>
+      </c>
+    </row>
+    <row r="27">
+      <c r="A27" t="inlineStr">
+        <is>
+          <t>Jose Paz Rangel Rojas</t>
+        </is>
+      </c>
+      <c r="B27" t="inlineStr">
+        <is>
+          <t>1934406</t>
+        </is>
+      </c>
+      <c r="C27" t="inlineStr">
+        <is>
+          <t>13:12:54</t>
+        </is>
+      </c>
+      <c r="D27" t="inlineStr">
+        <is>
+          <t>15:24:28</t>
+        </is>
+      </c>
+      <c r="E27" t="inlineStr">
+        <is>
+          <t>2</t>
+        </is>
+      </c>
+      <c r="F27" t="inlineStr">
+        <is>
+          <t>21/02/2025</t>
+        </is>
+      </c>
+    </row>
+    <row r="28">
+      <c r="A28" t="inlineStr">
+        <is>
+          <t>Diego Alberto Palacios Bocanegra</t>
+        </is>
+      </c>
+      <c r="B28" t="inlineStr">
+        <is>
+          <t>1994816</t>
+        </is>
+      </c>
+      <c r="C28" t="inlineStr">
+        <is>
+          <t>13:23:06</t>
+        </is>
+      </c>
+      <c r="D28" t="inlineStr">
+        <is>
+          <t>15:24:37</t>
+        </is>
+      </c>
+    </row>
+    <row r="29">
+      <c r="A29" t="inlineStr">
+        <is>
+          <t>Rolando Martinez Robles</t>
+        </is>
+      </c>
+      <c r="B29" t="inlineStr">
+        <is>
+          <t>2082956</t>
+        </is>
+      </c>
+      <c r="C29" t="inlineStr">
+        <is>
+          <t>13:46:59</t>
+        </is>
+      </c>
+    </row>
+    <row r="30">
+      <c r="A30" t="inlineStr">
+        <is>
+          <t>Diego Jasiel Amaro Renteria</t>
+        </is>
+      </c>
+      <c r="B30" t="inlineStr">
+        <is>
+          <t>1994123</t>
+        </is>
+      </c>
+      <c r="C30" t="inlineStr">
+        <is>
+          <t>13:55:43</t>
+        </is>
+      </c>
+      <c r="D30" t="inlineStr">
+        <is>
+          <t>16:01:36</t>
+        </is>
+      </c>
+    </row>
+    <row r="31">
+      <c r="A31" t="inlineStr">
+        <is>
+          <t>Sofia Pamela Bautista Vazquez</t>
+        </is>
+      </c>
+      <c r="B31" t="inlineStr">
+        <is>
+          <t>1978525</t>
+        </is>
+      </c>
+      <c r="C31" t="inlineStr">
+        <is>
+          <t>14:02:54</t>
+        </is>
+      </c>
+      <c r="D31" t="inlineStr">
+        <is>
+          <t>15:16:16</t>
+        </is>
+      </c>
+    </row>
+    <row r="32">
+      <c r="A32" t="inlineStr">
+        <is>
+          <t>Citlaly Guadalupe Fuentes Cordova</t>
+        </is>
+      </c>
+      <c r="B32" t="inlineStr">
+        <is>
+          <t>2086283</t>
+        </is>
+      </c>
+      <c r="C32" t="inlineStr">
+        <is>
+          <t>14:52:32</t>
+        </is>
+      </c>
+      <c r="D32" t="inlineStr">
+        <is>
+          <t>15:16:04</t>
+        </is>
+      </c>
     </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet9.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:F59"/>
+  <sheetViews>
+    <sheetView tabSelected="1" topLeftCell="A28" workbookViewId="0">
+      <selection activeCell="E54" sqref="E54"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="9.140625" defaultRowHeight="15"/>
+  <cols>
+    <col width="44.5703125" customWidth="1" style="6" min="1" max="1"/>
+    <col width="15.28515625" customWidth="1" style="6" min="2" max="2"/>
+    <col width="19.85546875" customWidth="1" style="6" min="3" max="3"/>
+    <col width="15.42578125" customWidth="1" style="6" min="4" max="4"/>
+    <col width="20" customWidth="1" style="6" min="5" max="5"/>
+    <col width="18.42578125" customWidth="1" style="6" min="6" max="6"/>
+  </cols>
+  <sheetData>
+    <row r="1">
+      <c r="A1" t="inlineStr">
+        <is>
+          <t>Nombre</t>
+        </is>
+      </c>
+      <c r="B1" t="inlineStr">
+        <is>
+          <t>Matrícula</t>
+        </is>
+      </c>
+      <c r="C1" t="inlineStr">
+        <is>
+          <t>Hora de Entrada</t>
+        </is>
+      </c>
+      <c r="D1" t="inlineStr">
+        <is>
+          <t>Hora de Salida</t>
+        </is>
+      </c>
+      <c r="E1" t="inlineStr">
+        <is>
+          <t>Horas Recuperadas</t>
+        </is>
+      </c>
+      <c r="F1" t="inlineStr">
+        <is>
+          <t>Fecha de Falta</t>
+        </is>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" t="inlineStr">
+        <is>
+          <t>Diego Eduardo Ayala Vega</t>
+        </is>
+      </c>
+      <c r="B2" t="inlineStr">
+        <is>
+          <t>2086298</t>
+        </is>
+      </c>
+      <c r="C2" t="inlineStr">
+        <is>
+          <t>06:48:59</t>
+        </is>
+      </c>
+      <c r="D2" t="inlineStr">
+        <is>
+          <t>12:05:56</t>
+        </is>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" t="inlineStr">
+        <is>
+          <t>Carlos Alejandro Segovia Romero</t>
+        </is>
+      </c>
+      <c r="B3" t="inlineStr">
+        <is>
+          <t>2034232</t>
+        </is>
+      </c>
+      <c r="C3" t="inlineStr">
+        <is>
+          <t>06:57:22</t>
+        </is>
+      </c>
+      <c r="D3" t="inlineStr">
+        <is>
+          <t>12:53:56</t>
+        </is>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" t="inlineStr">
+        <is>
+          <t>Raul Lopez Cavazos</t>
+        </is>
+      </c>
+      <c r="B4" t="inlineStr">
+        <is>
+          <t>1744896</t>
+        </is>
+      </c>
+      <c r="C4" t="inlineStr">
+        <is>
+          <t>07:22:34</t>
+        </is>
+      </c>
+      <c r="D4" t="inlineStr">
+        <is>
+          <t>14:10:08</t>
+        </is>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" t="inlineStr">
+        <is>
+          <t>Ricardo Ponce de Leon Herrera</t>
+        </is>
+      </c>
+      <c r="B5" t="inlineStr">
+        <is>
+          <t>1941445</t>
+        </is>
+      </c>
+      <c r="C5" t="inlineStr">
+        <is>
+          <t>07:45:59</t>
+        </is>
+      </c>
+      <c r="D5" t="inlineStr">
+        <is>
+          <t>11:45:57</t>
+        </is>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" t="inlineStr">
+        <is>
+          <t>Monica Carolina Puentes Briones</t>
+        </is>
+      </c>
+      <c r="B6" t="inlineStr">
+        <is>
+          <t>2086163</t>
+        </is>
+      </c>
+      <c r="C6" t="inlineStr">
+        <is>
+          <t>07:52:34</t>
+        </is>
+      </c>
+      <c r="D6" t="inlineStr">
+        <is>
+          <t>15:04:00</t>
+        </is>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" t="inlineStr">
+        <is>
+          <t>Emmanuel Machado Perez</t>
+        </is>
+      </c>
+      <c r="B7" t="inlineStr">
+        <is>
+          <t>1910412</t>
+        </is>
+      </c>
+      <c r="C7" t="inlineStr">
+        <is>
+          <t>07:55:29</t>
+        </is>
+      </c>
+      <c r="D7" t="inlineStr">
+        <is>
+          <t>15:14:26</t>
+        </is>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" t="inlineStr">
+        <is>
+          <t>Mauricio Alejandro Rodriguez Chavez</t>
+        </is>
+      </c>
+      <c r="B8" t="inlineStr">
+        <is>
+          <t>1948219</t>
+        </is>
+      </c>
+      <c r="C8" t="inlineStr">
+        <is>
+          <t>08:01:15</t>
+        </is>
+      </c>
+      <c r="D8" t="inlineStr">
+        <is>
+          <t>12:06:33</t>
+        </is>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" t="inlineStr">
+        <is>
+          <t>Israel Diaz Rosario</t>
+        </is>
+      </c>
+      <c r="B9" t="inlineStr">
+        <is>
+          <t>2086303</t>
+        </is>
+      </c>
+      <c r="C9" t="inlineStr">
+        <is>
+          <t>08:01:42</t>
+        </is>
+      </c>
+      <c r="D9" t="inlineStr">
+        <is>
+          <t>18:11:15</t>
+        </is>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" t="inlineStr">
+        <is>
+          <t>Juan Carlos Garcia Vazquez</t>
+        </is>
+      </c>
+      <c r="B10" t="inlineStr">
+        <is>
+          <t>1919676</t>
+        </is>
+      </c>
+      <c r="C10" t="inlineStr">
+        <is>
+          <t>08:31:34</t>
+        </is>
+      </c>
+      <c r="D10" t="inlineStr">
+        <is>
+          <t>18:00:33</t>
+        </is>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" t="inlineStr">
+        <is>
+          <t>Alejandro Isaias Montalvo Lupercio</t>
+        </is>
+      </c>
+      <c r="B11" t="inlineStr">
+        <is>
+          <t>1952789</t>
+        </is>
+      </c>
+      <c r="C11" t="inlineStr">
+        <is>
+          <t>08:34:00</t>
+        </is>
+      </c>
+      <c r="D11" t="inlineStr">
+        <is>
+          <t>14:56:17</t>
+        </is>
+      </c>
+    </row>
+    <row r="12">
+      <c r="A12" t="inlineStr">
+        <is>
+          <t>Alan Emiliano Iturbide Leal</t>
+        </is>
+      </c>
+      <c r="B12" t="inlineStr">
+        <is>
+          <t>2082907</t>
+        </is>
+      </c>
+      <c r="C12" t="inlineStr">
+        <is>
+          <t>08:34:08</t>
+        </is>
+      </c>
+      <c r="D12" t="inlineStr">
+        <is>
+          <t>12:29:15</t>
+        </is>
+      </c>
+    </row>
+    <row r="13">
+      <c r="A13" t="inlineStr">
+        <is>
+          <t>John Robert Abel Castillo Martinez</t>
+        </is>
+      </c>
+      <c r="B13" t="inlineStr">
+        <is>
+          <t>1999405</t>
+        </is>
+      </c>
+      <c r="C13" t="inlineStr">
+        <is>
+          <t>08:38:39</t>
+        </is>
+      </c>
+      <c r="D13" t="inlineStr">
+        <is>
+          <t>12:54:07</t>
+        </is>
+      </c>
+    </row>
+    <row r="14">
+      <c r="A14" t="inlineStr">
+        <is>
+          <t>Oscar Daniel Muñoz Valenzuela</t>
+        </is>
+      </c>
+      <c r="B14" t="inlineStr">
+        <is>
+          <t>1878198</t>
+        </is>
+      </c>
+      <c r="C14" t="inlineStr">
+        <is>
+          <t>09:02:35</t>
+        </is>
+      </c>
+      <c r="D14" t="inlineStr">
+        <is>
+          <t>13:18:42</t>
+        </is>
+      </c>
+    </row>
+    <row r="15">
+      <c r="A15" t="inlineStr">
+        <is>
+          <t>Itzel Escudero Delgado</t>
+        </is>
+      </c>
+      <c r="B15" t="inlineStr">
+        <is>
+          <t>1968877</t>
+        </is>
+      </c>
+      <c r="C15" t="inlineStr">
+        <is>
+          <t>09:05:57</t>
+        </is>
+      </c>
+      <c r="D15" t="inlineStr">
+        <is>
+          <t>11:53:57</t>
+        </is>
+      </c>
+    </row>
+    <row r="16">
+      <c r="A16" t="inlineStr">
+        <is>
+          <t>Gilberto Jair Mejia Mercado</t>
+        </is>
+      </c>
+      <c r="B16" t="inlineStr">
+        <is>
+          <t>1919157</t>
+        </is>
+      </c>
+      <c r="C16" t="inlineStr">
+        <is>
+          <t>09:06:16</t>
+        </is>
+      </c>
+      <c r="D16" t="inlineStr">
+        <is>
+          <t>15:10:05</t>
+        </is>
+      </c>
+    </row>
+    <row r="17">
+      <c r="A17" t="inlineStr">
+        <is>
+          <t>Aitor Santiago Medellin Silva</t>
+        </is>
+      </c>
+      <c r="B17" t="inlineStr">
+        <is>
+          <t>1964785</t>
+        </is>
+      </c>
+      <c r="C17" t="inlineStr">
+        <is>
+          <t>09:08:19</t>
+        </is>
+      </c>
+      <c r="D17" t="inlineStr">
+        <is>
+          <t>13:00:21</t>
+        </is>
+      </c>
+    </row>
+    <row r="18">
+      <c r="A18" t="inlineStr">
+        <is>
+          <t>Leslie Fernanda Estrada Delgado</t>
+        </is>
+      </c>
+      <c r="B18" t="inlineStr">
+        <is>
+          <t>2086185</t>
+        </is>
+      </c>
+      <c r="C18" t="inlineStr">
+        <is>
+          <t>09:19:50</t>
+        </is>
+      </c>
+      <c r="D18" t="inlineStr">
+        <is>
+          <t>13:00:31</t>
+        </is>
+      </c>
+    </row>
+    <row r="19">
+      <c r="A19" t="inlineStr">
+        <is>
+          <t>Cesar Alexandro Guerra Gonzalez</t>
+        </is>
+      </c>
+      <c r="B19" t="inlineStr">
+        <is>
+          <t>1917267</t>
+        </is>
+      </c>
+      <c r="C19" t="inlineStr">
+        <is>
+          <t>09:39:41</t>
+        </is>
+      </c>
+      <c r="D19" t="inlineStr">
+        <is>
+          <t>14:43:54</t>
+        </is>
+      </c>
+    </row>
+    <row r="20">
+      <c r="A20" t="inlineStr">
+        <is>
+          <t>Luis Cesar Carlon Gonzalez</t>
+        </is>
+      </c>
+      <c r="B20" t="inlineStr">
+        <is>
+          <t>1941417</t>
+        </is>
+      </c>
+      <c r="C20" t="inlineStr">
+        <is>
+          <t>09:52:48</t>
+        </is>
+      </c>
+      <c r="D20" t="inlineStr">
+        <is>
+          <t>15:18:36</t>
+        </is>
+      </c>
+    </row>
+    <row r="21">
+      <c r="A21" t="inlineStr">
+        <is>
+          <t>Citlaly Guadalupe Fuentes Cordova</t>
+        </is>
+      </c>
+      <c r="B21" t="inlineStr">
+        <is>
+          <t>2086283</t>
+        </is>
+      </c>
+      <c r="C21" t="inlineStr">
+        <is>
+          <t>10:02:05</t>
+        </is>
+      </c>
+      <c r="D21" t="inlineStr">
+        <is>
+          <t>12:43:05</t>
+        </is>
+      </c>
+    </row>
+    <row r="22">
+      <c r="A22" t="inlineStr">
+        <is>
+          <t>Jorge Lucio Estupiñan Reyna</t>
+        </is>
+      </c>
+      <c r="B22" t="inlineStr">
+        <is>
+          <t>1841756</t>
+        </is>
+      </c>
+      <c r="C22" t="inlineStr">
+        <is>
+          <t>10:48:46</t>
+        </is>
+      </c>
+      <c r="D22" t="inlineStr">
+        <is>
+          <t>15:09:58</t>
+        </is>
+      </c>
+    </row>
+    <row r="23">
+      <c r="A23" t="inlineStr">
+        <is>
+          <t>Diego Jasiel Amaro Renteria</t>
+        </is>
+      </c>
+      <c r="B23" t="inlineStr">
+        <is>
+          <t>1994123</t>
+        </is>
+      </c>
+      <c r="C23" t="inlineStr">
+        <is>
+          <t>11:50:40</t>
+        </is>
+      </c>
+      <c r="D23" t="inlineStr">
+        <is>
+          <t>19:01:28</t>
+        </is>
+      </c>
+    </row>
+    <row r="24">
+      <c r="A24" t="inlineStr">
+        <is>
+          <t>Aldo Maximino Ibarra Melendez</t>
+        </is>
+      </c>
+      <c r="B24" t="inlineStr">
+        <is>
+          <t>1736859</t>
+        </is>
+      </c>
+      <c r="C24" t="inlineStr">
+        <is>
+          <t>12:04:17</t>
+        </is>
+      </c>
+      <c r="D24" t="inlineStr">
+        <is>
+          <t>19:04:48</t>
+        </is>
+      </c>
+    </row>
+    <row r="25">
+      <c r="A25" t="inlineStr">
+        <is>
+          <t>Kenia Sarahy Zamora Marroquin</t>
+        </is>
+      </c>
+      <c r="B25" t="inlineStr">
+        <is>
+          <t>1815310</t>
+        </is>
+      </c>
+      <c r="C25" t="inlineStr">
+        <is>
+          <t>12:04:28</t>
+        </is>
+      </c>
+      <c r="D25" t="inlineStr">
+        <is>
+          <t>17:16:55</t>
+        </is>
+      </c>
+      <c r="E25" t="inlineStr">
+        <is>
+          <t>1</t>
+        </is>
+      </c>
+      <c r="F25" t="inlineStr">
+        <is>
+          <t>21/02/2025</t>
+        </is>
+      </c>
+    </row>
+    <row r="26">
+      <c r="A26" t="inlineStr">
+        <is>
+          <t>Santiago Sebastian Alvarado Lozano</t>
+        </is>
+      </c>
+      <c r="B26" t="inlineStr">
+        <is>
+          <t>2076388</t>
+        </is>
+      </c>
+      <c r="C26" t="inlineStr">
+        <is>
+          <t>12:23:06</t>
+        </is>
+      </c>
+      <c r="D26" t="inlineStr">
+        <is>
+          <t>17:17:42</t>
+        </is>
+      </c>
+      <c r="E26" t="inlineStr">
+        <is>
+          <t>1</t>
+        </is>
+      </c>
+      <c r="F26" t="inlineStr">
+        <is>
+          <t>21/02/2025</t>
+        </is>
+      </c>
+    </row>
+    <row r="27">
+      <c r="A27" t="inlineStr">
+        <is>
+          <t>Luis Enrique Cabrera Padilla</t>
+        </is>
+      </c>
+      <c r="B27" t="inlineStr">
+        <is>
+          <t>1975069</t>
+        </is>
+      </c>
+      <c r="C27" t="inlineStr">
+        <is>
+          <t>13:00:12</t>
+        </is>
+      </c>
+      <c r="D27" t="inlineStr">
+        <is>
+          <t>19:00:14</t>
+        </is>
+      </c>
+    </row>
+    <row r="28">
+      <c r="A28" t="inlineStr">
+        <is>
+          <t>Diego Alberto Palacios Bocanegra</t>
+        </is>
+      </c>
+      <c r="B28" t="inlineStr">
+        <is>
+          <t>1994816</t>
+        </is>
+      </c>
+      <c r="C28" t="inlineStr">
+        <is>
+          <t>13:25:32</t>
+        </is>
+      </c>
+      <c r="D28" t="inlineStr">
+        <is>
+          <t>19:54:09</t>
+        </is>
+      </c>
+    </row>
+    <row r="29">
+      <c r="A29" t="inlineStr">
+        <is>
+          <t>Rolando Martinez Robles</t>
+        </is>
+      </c>
+      <c r="B29" t="inlineStr">
+        <is>
+          <t>2082956</t>
+        </is>
+      </c>
+      <c r="C29" t="inlineStr">
+        <is>
+          <t>13:48:11</t>
+        </is>
+      </c>
+      <c r="D29" t="inlineStr">
+        <is>
+          <t>18:10:59</t>
+        </is>
+      </c>
+    </row>
+    <row r="30">
+      <c r="A30" t="inlineStr">
+        <is>
+          <t>Edgar Rangel Muñoz</t>
+        </is>
+      </c>
+      <c r="B30" t="inlineStr">
+        <is>
+          <t>1921766</t>
+        </is>
+      </c>
+      <c r="C30" t="inlineStr">
+        <is>
+          <t>14:04:33</t>
+        </is>
+      </c>
+      <c r="D30" t="inlineStr">
+        <is>
+          <t>19:53:53</t>
+        </is>
+      </c>
+    </row>
+    <row r="31">
+      <c r="A31" t="inlineStr">
+        <is>
+          <t>Cesar Alejandro Rodriguez Perez</t>
+        </is>
+      </c>
+      <c r="B31" t="inlineStr">
+        <is>
+          <t>1734223</t>
+        </is>
+      </c>
+      <c r="C31" t="inlineStr">
+        <is>
+          <t>14:23:08</t>
+        </is>
+      </c>
+      <c r="D31" t="inlineStr">
+        <is>
+          <t>18:20:56</t>
+        </is>
+      </c>
+    </row>
+    <row r="32">
+      <c r="A32" t="inlineStr">
+        <is>
+          <t>Lizbeth America Rodriguez Gomez</t>
+        </is>
+      </c>
+      <c r="B32" t="inlineStr">
+        <is>
+          <t>1902085</t>
+        </is>
+      </c>
+      <c r="C32" t="inlineStr">
+        <is>
+          <t>14:40:03</t>
+        </is>
+      </c>
+      <c r="D32" t="inlineStr">
+        <is>
+          <t>19:57:55</t>
+        </is>
+      </c>
+      <c r="E32" t="inlineStr">
+        <is>
+          <t>1</t>
+        </is>
+      </c>
+      <c r="F32" t="inlineStr">
+        <is>
+          <t>21/02/2025</t>
+        </is>
+      </c>
+    </row>
+    <row r="33">
+      <c r="A33" t="inlineStr">
+        <is>
+          <t>Jelmy Gerardo Lopez Garcia</t>
+        </is>
+      </c>
+      <c r="B33" t="inlineStr">
+        <is>
+          <t>1989937</t>
+        </is>
+      </c>
+      <c r="C33" t="inlineStr">
+        <is>
+          <t>14:40:55</t>
+        </is>
+      </c>
+      <c r="D33" t="inlineStr">
+        <is>
+          <t>19:00:56</t>
+        </is>
+      </c>
+    </row>
+    <row r="34">
+      <c r="A34" t="inlineStr">
+        <is>
+          <t>Maria Elena Ibarra Garcia</t>
+        </is>
+      </c>
+      <c r="B34" t="inlineStr">
+        <is>
+          <t>1844248</t>
+        </is>
+      </c>
+      <c r="C34" t="inlineStr">
+        <is>
+          <t>14:48:46</t>
+        </is>
+      </c>
+      <c r="D34" t="inlineStr">
+        <is>
+          <t>19:48:15</t>
+        </is>
+      </c>
+    </row>
+    <row r="35">
+      <c r="A35" t="inlineStr">
+        <is>
+          <t>Cristian Salazar Bautista</t>
+        </is>
+      </c>
+      <c r="B35" t="inlineStr">
+        <is>
+          <t>1964253</t>
+        </is>
+      </c>
+      <c r="C35" t="inlineStr">
+        <is>
+          <t>14:57:00</t>
+        </is>
+      </c>
+      <c r="D35" t="inlineStr">
+        <is>
+          <t>19:03:58</t>
+        </is>
+      </c>
+    </row>
+    <row r="36">
+      <c r="A36" t="inlineStr">
+        <is>
+          <t>Juan Carlos Reyna Padilla</t>
+        </is>
+      </c>
+      <c r="B36" t="inlineStr">
+        <is>
+          <t>1990025</t>
+        </is>
+      </c>
+      <c r="C36" t="inlineStr">
+        <is>
+          <t>15:04:13</t>
+        </is>
+      </c>
+      <c r="D36" t="inlineStr">
+        <is>
+          <t>18:58:57</t>
+        </is>
+      </c>
+    </row>
+    <row r="37">
+      <c r="A37" t="inlineStr">
+        <is>
+          <t>Francisco Javier Cañedo Lizarraga</t>
+        </is>
+      </c>
+      <c r="B37" t="inlineStr">
+        <is>
+          <t>2076289</t>
+        </is>
+      </c>
+      <c r="C37" t="inlineStr">
+        <is>
+          <t>15:17:23</t>
+        </is>
+      </c>
+      <c r="D37" t="inlineStr">
+        <is>
+          <t>19:26:54</t>
+        </is>
+      </c>
+    </row>
+    <row r="38">
+      <c r="A38" t="inlineStr">
+        <is>
+          <t>Luis Gerardo Coronado Rodríguez</t>
+        </is>
+      </c>
+      <c r="B38" t="inlineStr">
+        <is>
+          <t>1909051</t>
+        </is>
+      </c>
+      <c r="C38" t="inlineStr">
+        <is>
+          <t>15:17:30</t>
+        </is>
+      </c>
+      <c r="D38" t="inlineStr">
+        <is>
+          <t>19:27:18</t>
+        </is>
+      </c>
+    </row>
+    <row r="39">
+      <c r="A39" t="inlineStr">
+        <is>
+          <t>Cristobal Caballero Moreno</t>
+        </is>
+      </c>
+      <c r="B39" t="inlineStr">
+        <is>
+          <t>1967859</t>
+        </is>
+      </c>
+      <c r="C39" t="inlineStr">
+        <is>
+          <t>15:28:22</t>
+        </is>
+      </c>
+      <c r="D39" t="inlineStr">
+        <is>
+          <t>19:27:05</t>
+        </is>
+      </c>
+    </row>
+    <row r="40">
+      <c r="A40" t="inlineStr">
+        <is>
+          <t>Marintia Anahi Treviño Rodriguez</t>
+        </is>
+      </c>
+      <c r="B40" t="inlineStr">
+        <is>
+          <t>1813720</t>
+        </is>
+      </c>
+      <c r="C40" t="inlineStr">
+        <is>
+          <t>15:39:13</t>
+        </is>
+      </c>
+      <c r="D40" t="inlineStr">
+        <is>
+          <t>18:14:34</t>
+        </is>
+      </c>
+    </row>
+    <row r="41">
+      <c r="A41" t="inlineStr">
+        <is>
+          <t>Andres Emilio Acosta Hernandez</t>
+        </is>
+      </c>
+      <c r="B41" t="inlineStr">
+        <is>
+          <t>1896556</t>
+        </is>
+      </c>
+      <c r="C41" t="inlineStr">
+        <is>
+          <t>15:45:37</t>
+        </is>
+      </c>
+      <c r="D41" t="inlineStr">
+        <is>
+          <t>19:54:01</t>
+        </is>
+      </c>
+    </row>
+    <row r="42">
+      <c r="A42" t="inlineStr">
+        <is>
+          <t>Gabriel Omar Briseño Pinales</t>
+        </is>
+      </c>
+      <c r="B42" t="inlineStr">
+        <is>
+          <t>1996314</t>
+        </is>
+      </c>
+      <c r="C42" s="1" t="n">
+        <v>0.6666666666666666</v>
+      </c>
+      <c r="D42" t="inlineStr">
+        <is>
+          <t>19:57:08</t>
+        </is>
+      </c>
+    </row>
+    <row r="43">
+      <c r="A43" t="inlineStr">
+        <is>
+          <t>Noe Ramses Rosales Hernandez</t>
+        </is>
+      </c>
+      <c r="B43" t="inlineStr">
+        <is>
+          <t>1868619</t>
+        </is>
+      </c>
+      <c r="C43" s="1" t="n">
+        <v>0.6666666666666666</v>
+      </c>
+      <c r="D43" t="inlineStr">
+        <is>
+          <t>19:38:43</t>
+        </is>
+      </c>
+    </row>
+    <row r="44">
+      <c r="A44" t="inlineStr">
+        <is>
+          <t>Ruth Garza Garcia</t>
+        </is>
+      </c>
+      <c r="B44" t="inlineStr">
+        <is>
+          <t>2022318</t>
+        </is>
+      </c>
+      <c r="C44" s="5" t="n">
+        <v>0.6666666666666666</v>
+      </c>
+      <c r="D44" t="inlineStr">
+        <is>
+          <t>19:52:42</t>
+        </is>
+      </c>
+    </row>
+    <row r="45">
+      <c r="A45" t="inlineStr">
+        <is>
+          <t>Martin Esequiel Hernandez Silva</t>
+        </is>
+      </c>
+      <c r="B45" t="inlineStr">
+        <is>
+          <t>1847137</t>
+        </is>
+      </c>
+      <c r="C45" s="1" t="n">
+        <v>0.6666666666666666</v>
+      </c>
+      <c r="D45" t="inlineStr">
+        <is>
+          <t>19:34:48</t>
+        </is>
+      </c>
+    </row>
+    <row r="46">
+      <c r="A46" t="inlineStr">
+        <is>
+          <t>Pedro Antonio González Soto</t>
+        </is>
+      </c>
+      <c r="B46" t="inlineStr">
+        <is>
+          <t>2006251</t>
+        </is>
+      </c>
+      <c r="C46" s="1" t="n">
+        <v>0.6666666666666666</v>
+      </c>
+      <c r="D46" t="inlineStr">
+        <is>
+          <t>19:04:31</t>
+        </is>
+      </c>
+    </row>
+    <row r="47">
+      <c r="A47" t="inlineStr">
+        <is>
+          <t>Leonardo Sanchez Diaz</t>
+        </is>
+      </c>
+      <c r="B47" t="inlineStr">
+        <is>
+          <t>1900585</t>
+        </is>
+      </c>
+      <c r="C47" s="1" t="n">
+        <v>0.6666666666666666</v>
+      </c>
+      <c r="D47" t="inlineStr">
+        <is>
+          <t>19:56:14</t>
+        </is>
+      </c>
+    </row>
+    <row r="48">
+      <c r="A48" t="inlineStr">
+        <is>
+          <t>Juan Carlos Tapia Baeza</t>
+        </is>
+      </c>
+      <c r="B48" t="inlineStr">
+        <is>
+          <t>2086212</t>
+        </is>
+      </c>
+      <c r="C48" s="1" t="n">
+        <v>0.6666666666666666</v>
+      </c>
+      <c r="D48" t="inlineStr">
+        <is>
+          <t>19:58:10</t>
+        </is>
+      </c>
+    </row>
+    <row r="49">
+      <c r="A49" t="inlineStr">
+        <is>
+          <t>Ana Sofia Sandoval de la Torre</t>
+        </is>
+      </c>
+      <c r="B49" t="inlineStr">
+        <is>
+          <t>2076222</t>
+        </is>
+      </c>
+      <c r="C49" s="1" t="n">
+        <v>0.6666666666666666</v>
+      </c>
+      <c r="D49" t="inlineStr">
+        <is>
+          <t>19:52:53</t>
+        </is>
+      </c>
+    </row>
+    <row r="50">
+      <c r="A50" t="inlineStr">
+        <is>
+          <t>Edgar Eduardo Hernandez Mariscal</t>
+        </is>
+      </c>
+      <c r="B50" t="inlineStr">
+        <is>
+          <t>1896993</t>
+        </is>
+      </c>
+      <c r="C50" s="1" t="n">
+        <v>0.6666666666666666</v>
+      </c>
+    </row>
+    <row r="51">
+      <c r="A51" t="inlineStr">
+        <is>
+          <t>Marco Polo Angeles Lopez</t>
+        </is>
+      </c>
+      <c r="B51" t="inlineStr">
+        <is>
+          <t>1896974</t>
+        </is>
+      </c>
+      <c r="C51" s="1" t="n">
+        <v>0.6666666666666666</v>
+      </c>
+      <c r="D51" t="inlineStr">
+        <is>
+          <t>19:53:04</t>
+        </is>
+      </c>
+    </row>
+    <row r="52">
+      <c r="A52" t="inlineStr">
+        <is>
+          <t>Zulema Yamileht Campos Saucedo</t>
+        </is>
+      </c>
+      <c r="B52" t="inlineStr">
+        <is>
+          <t>1873260</t>
+        </is>
+      </c>
+      <c r="C52" s="1" t="n">
+        <v>0.6666666666666666</v>
+      </c>
+      <c r="D52" t="inlineStr">
+        <is>
+          <t>19:48:24</t>
+        </is>
+      </c>
+    </row>
+    <row r="53">
+      <c r="A53" t="inlineStr">
+        <is>
+          <t>Nelly Rangel Jimenez</t>
+        </is>
+      </c>
+      <c r="B53" t="inlineStr">
+        <is>
+          <t>2076253</t>
+        </is>
+      </c>
+      <c r="C53" s="1" t="n">
+        <v>0.6666666666666666</v>
+      </c>
+      <c r="D53" t="inlineStr">
+        <is>
+          <t>20:02:48</t>
+        </is>
+      </c>
+    </row>
+    <row r="54">
+      <c r="A54" t="inlineStr">
+        <is>
+          <t>Karen Victoria Vargas Cruz</t>
+        </is>
+      </c>
+      <c r="B54" t="inlineStr">
+        <is>
+          <t>1960023</t>
+        </is>
+      </c>
+      <c r="C54" s="1" t="n">
+        <v>0.6666666666666666</v>
+      </c>
+      <c r="D54" t="inlineStr">
+        <is>
+          <t>20:02:55</t>
+        </is>
+      </c>
+    </row>
+    <row r="55">
+      <c r="A55" t="inlineStr">
+        <is>
+          <t>Aidan Eduardo Rodriguez Bautista</t>
+        </is>
+      </c>
+      <c r="B55" t="inlineStr">
+        <is>
+          <t>2076315</t>
+        </is>
+      </c>
+      <c r="C55" t="inlineStr">
+        <is>
+          <t>17:20:56</t>
+        </is>
+      </c>
+      <c r="D55" t="inlineStr">
+        <is>
+          <t>19:42:24</t>
+        </is>
+      </c>
+    </row>
+    <row r="56">
+      <c r="A56" t="inlineStr">
+        <is>
+          <t>Barbara Fitch Espinosa</t>
+        </is>
+      </c>
+      <c r="B56" t="inlineStr">
+        <is>
+          <t>1957128</t>
+        </is>
+      </c>
+      <c r="C56" s="1" t="n">
+        <v>0.6666666666666666</v>
+      </c>
+      <c r="D56" t="inlineStr">
+        <is>
+          <t>20:03:11</t>
+        </is>
+      </c>
+    </row>
+    <row r="57">
+      <c r="A57" t="inlineStr">
+        <is>
+          <t>Jose Paz Rangel Rojas</t>
+        </is>
+      </c>
+      <c r="B57" t="inlineStr">
+        <is>
+          <t>1934406</t>
+        </is>
+      </c>
+      <c r="C57" t="inlineStr">
+        <is>
+          <t>17:23:48</t>
+        </is>
+      </c>
+      <c r="D57" t="inlineStr">
+        <is>
+          <t>19:54:31</t>
+        </is>
+      </c>
+    </row>
+    <row r="58">
+      <c r="A58" t="inlineStr">
+        <is>
+          <t>Angel Martin Villa Palomares</t>
+        </is>
+      </c>
+      <c r="B58" t="inlineStr">
+        <is>
+          <t>1916397</t>
+        </is>
+      </c>
+      <c r="C58" t="inlineStr">
+        <is>
+          <t>17:31:16</t>
+        </is>
+      </c>
+      <c r="D58" t="inlineStr">
+        <is>
+          <t>20:09:48</t>
+        </is>
+      </c>
+    </row>
+    <row r="59">
+      <c r="A59" t="inlineStr">
+        <is>
+          <t>Oscar Arath Vasquez Morales</t>
+        </is>
+      </c>
+      <c r="B59" t="inlineStr">
+        <is>
+          <t>2086292</t>
+        </is>
+      </c>
+      <c r="C59" t="inlineStr">
+        <is>
+          <t>18:03:17</t>
+        </is>
+      </c>
+      <c r="D59" t="inlineStr">
+        <is>
+          <t>19:53:15</t>
+        </is>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+  <pageSetup orientation="portrait" paperSize="9"/>
+</worksheet>
 </file>